--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="2655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="2657">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -8025,6 +8025,12 @@
   </si>
   <si>
     <t xml:space="preserve">娃娃机币不足！是否购买？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy_Success_Text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">复制成功</t>
   </si>
 </sst>
 </file>
@@ -8205,127 +8211,127 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8412,9 +8418,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>644040</xdr:colOff>
+      <xdr:colOff>643680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8424,7 +8430,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9667440" cy="3951360"/>
+          <a:ext cx="9667080" cy="3951000"/>
         </a:xfrm>
         <a:noFill/>
         <a:ln w="0">
@@ -8448,10 +8454,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T977"/>
+  <dimension ref="A1:T978"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A961" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D978" activeCellId="0" sqref="D978"/>
+      <selection pane="topLeft" activeCell="D974" activeCellId="0" sqref="D974"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8459,7 +8465,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="58.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="58.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="24.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="7" style="1" width="13.82"/>
   </cols>
@@ -22880,6 +22886,17 @@
       </c>
       <c r="D977" s="3" t="s">
         <v>2654</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="D978" s="1" t="s">
+        <v>2656</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="2657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="2661">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -8030,7 +8030,19 @@
     <t xml:space="preserve">Copy_Success_Text_1</t>
   </si>
   <si>
-    <t xml:space="preserve">复制成功</t>
+    <t xml:space="preserve">复制成功！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BuyDollCoin_Success_Text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">购买成功！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BuyDollCoin_Fail_Text_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">购买失败！</t>
   </si>
 </sst>
 </file>
@@ -8418,9 +8430,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>643680</xdr:colOff>
+      <xdr:colOff>643320</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8430,7 +8442,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9667080" cy="3951000"/>
+          <a:ext cx="9666720" cy="3950640"/>
         </a:xfrm>
         <a:noFill/>
         <a:ln w="0">
@@ -8454,10 +8466,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T978"/>
+  <dimension ref="A1:T980"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A961" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D974" activeCellId="0" sqref="D974"/>
+      <selection pane="topLeft" activeCell="D982" activeCellId="0" sqref="D982"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22897,6 +22909,28 @@
       </c>
       <c r="D978" s="1" t="s">
         <v>2656</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A980" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>2660</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778D9F1A-E814-4B53-8AE3-056CECCCC981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729DDADC-022B-4B2A-80DE-87C987BC4DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8261,12 +8261,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1. 每30分钟，根据玩家品质最高、特殊化程度最高的5只宠物恢复体力，宠物的品质维度：普通=1，稀有=2；史诗=3，传说=4，神话=5，宠物的特殊化维度：普通=0，爱心=1，彩虹=2。
-2. 品质、特殊化两者取和。单次恢复体力的上限为30点。
-3. 当现有体力达到体力上限时，将不再随时间恢复体力。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1. Depending on the total power of the dragon at the player's address, the pet will receive different buffs. 
 2. 100 &lt; Total Power ≤ 400 -- MODragon Lv.1 gain buff
 400&lt; Total Power ≤1000 -- MODragon Lv.1 gain buff + MODragon Lv.1 attack buff
@@ -8275,17 +8269,26 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1. Every 30 minutes, according to the player's 5 pets with the highest quality and the highest degree of specialization, the quality dimensions of pets are: Common=1, Rare=2, Epic=3, Legendary=4, Mythic=5, Pets' Specialization Dimensions: Common=0, Heart=1, Rainbow=2.
-2. Combine quality and specialization. The maximum amount of HP recovered at a time is 30.
-3. When the current stamina reaches the maximum stamina, it will no longer recover over time.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>龙龙Buff规则</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MODragon buff rules</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 每个宠物攻击一次金币或钻石需要扣除1点体力。
+2. 每30分钟，根据玩家品质和特殊化维度最高的5只宠物恢复体力，宠物的品质维度：普通=1，稀有=2；史诗=3，传说=4，神话=5，宠物的特殊化维度：普通=0，爱心=1，彩虹=2。宠物恢复体力的数量=该宠物品质维度+该宠物特殊化维度。
+3. 品质、特殊化两者取和。单次恢复体力的上限为30点。
+4. 当现有体力达到体力上限时，将不再随时间恢复体力。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Each pet attacks gold or diamonds with 1 point of stamina.
+2. Every 30 minutes, the 5 pets with the highest quality and specialization dimensions will recover their stamina: Common=1, Rare=2, Epic=3, Legend=4, Mythic=5, Pet's Specialization Dimensions: Common=0, Heart=1, Rainbow=2. 
+The amount of physical strength recovered by the pet = the pet quality dimension + the pet specialization dimension.
+3. Sum of quality and specialization. The maximum amount of HP recovered at a time is 30.
+4. When the current stamina reaches the maximum stamina, it will no longer recover over time. &amp;quot;</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8923,8 +8926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A985" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D994" sqref="D994"/>
+    <sheetView tabSelected="1" topLeftCell="A991" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F994" sqref="F994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -29420,16 +29423,16 @@
         <v>2731</v>
       </c>
       <c r="C991" s="1" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="D991" s="1" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="E991" s="1" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="F991" s="1" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="992" spans="1:6" ht="247.5" x14ac:dyDescent="0.35">
@@ -29440,16 +29443,16 @@
         <v>2733</v>
       </c>
       <c r="C992" s="23" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="D992" s="23" t="s">
         <v>2737</v>
       </c>
       <c r="E992" s="23" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="F992" s="23" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.35">
@@ -29472,7 +29475,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="994" spans="1:6" ht="313.5" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A994" s="1">
         <v>990</v>
       </c>
@@ -29480,16 +29483,16 @@
         <v>2734</v>
       </c>
       <c r="C994" s="23" t="s">
-        <v>2740</v>
+        <v>2742</v>
       </c>
       <c r="D994" s="23" t="s">
-        <v>2738</v>
+        <v>2741</v>
       </c>
       <c r="E994" s="23" t="s">
-        <v>2740</v>
+        <v>2742</v>
       </c>
       <c r="F994" s="23" t="s">
-        <v>2740</v>
+        <v>2742</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729DDADC-022B-4B2A-80DE-87C987BC4DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F1D1C6-6C5A-41B5-A5CD-97AA8945DFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4961" uniqueCount="2743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4971" uniqueCount="2749">
   <si>
     <t>int</t>
   </si>
@@ -8277,17 +8277,41 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>BuyDollCoin_Text_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyDollCoin_Text_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃娃机商店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃娃机硬币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crane Coins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crane coins shop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 每个宠物攻击一次金币或钻石需要扣除1点体力。
-2. 每30分钟，根据玩家品质和特殊化维度最高的5只宠物恢复体力，宠物的品质维度：普通=1，稀有=2；史诗=3，传说=4，神话=5，宠物的特殊化维度：普通=0，爱心=1，彩虹=2。宠物恢复体力的数量=该宠物品质维度+该宠物特殊化维度。
-3. 品质、特殊化两者取和。单次恢复体力的上限为30点。
+2. 每30分钟，根据玩家品质和特殊化维度最高的5只宠物恢复体力，宠物的品质维度：普通=2，稀有=4；史诗=6，传说=8，神话=10，宠物的特殊化维度：普通=0，爱心=2，彩虹=4。宠物恢复体力的数量=该宠物品质维度+该宠物特殊化维度。
+3. 单次恢复体力的上限为60点。
 4. 当现有体力达到体力上限时，将不再随时间恢复体力。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1. Each pet attacks gold or diamonds with 1 point of stamina.
-2. Every 30 minutes, the 5 pets with the highest quality and specialization dimensions will recover their stamina: Common=1, Rare=2, Epic=3, Legend=4, Mythic=5, Pet's Specialization Dimensions: Common=0, Heart=1, Rainbow=2. 
+    <t>1. Each pet attacks gold or diamonds with 1 stamina.
+2. Every 30 minutes, the 5 pets with the highest quality and specialization dimensions will recover their stamina: Common=2, Rare=4, Epic=6, Legend=8, Mythic=10, Pet's Specialization Dimensions: Common=0, Heart=2, Rainbow=4. 
 The amount of physical strength recovered by the pet = the pet quality dimension + the pet specialization dimension.
-3. Sum of quality and specialization. The maximum amount of HP recovered at a time is 30.
+3. The maximum amount of HP recovered at a time is 60.
 4. When the current stamina reaches the maximum stamina, it will no longer recover over time. &amp;quot;</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8924,10 +8948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T994"/>
+  <dimension ref="A1:T996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A991" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F994" sqref="F994"/>
+    <sheetView tabSelected="1" topLeftCell="A992" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D994" sqref="D994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -29475,7 +29499,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="994" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:6" ht="363" x14ac:dyDescent="0.35">
       <c r="A994" s="1">
         <v>990</v>
       </c>
@@ -29483,16 +29507,56 @@
         <v>2734</v>
       </c>
       <c r="C994" s="23" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D994" s="23" t="s">
+        <v>2747</v>
+      </c>
+      <c r="E994" s="23" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F994" s="23" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A995" s="1">
+        <v>991</v>
+      </c>
+      <c r="B995" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C995" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D995" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E995" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F995" s="1" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A996" s="1">
+        <v>992</v>
+      </c>
+      <c r="B996" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="D994" s="23" t="s">
-        <v>2741</v>
-      </c>
-      <c r="E994" s="23" t="s">
-        <v>2742</v>
-      </c>
-      <c r="F994" s="23" t="s">
-        <v>2742</v>
+      <c r="C996" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D996" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E996" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F996" s="1" t="s">
+        <v>2745</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F1D1C6-6C5A-41B5-A5CD-97AA8945DFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C589ACCB-562F-4237-86C3-AD6E7B1B0DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4971" uniqueCount="2749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="2875">
   <si>
     <t>int</t>
   </si>
@@ -8313,6 +8313,427 @@
 The amount of physical strength recovered by the pet = the pet quality dimension + the pet specialization dimension.
 3. The maximum amount of HP recovered at a time is 60.
 4. When the current stamina reaches the maximum stamina, it will no longer recover over time. &amp;quot;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetARR_petName_204</t>
+  </si>
+  <si>
+    <t>PetARR_petName_205</t>
+  </si>
+  <si>
+    <t>PetARR_petName_206</t>
+  </si>
+  <si>
+    <t>PetARR_petName_207</t>
+  </si>
+  <si>
+    <t>PetARR_petName_208</t>
+  </si>
+  <si>
+    <t>PetARR_petName_209</t>
+  </si>
+  <si>
+    <t>PetARR_petName_210</t>
+  </si>
+  <si>
+    <t>PetARR_petName_211</t>
+  </si>
+  <si>
+    <t>PetARR_petName_212</t>
+  </si>
+  <si>
+    <t>PetARR_petName_213</t>
+  </si>
+  <si>
+    <t>PetARR_petName_214</t>
+  </si>
+  <si>
+    <t>PetARR_petName_215</t>
+  </si>
+  <si>
+    <t>PetARR_petName_216</t>
+  </si>
+  <si>
+    <t>PetARR_petName_217</t>
+  </si>
+  <si>
+    <t>PetARR_petName_218</t>
+  </si>
+  <si>
+    <t>PetARR_petName_219</t>
+  </si>
+  <si>
+    <t>PetARR_petName_220</t>
+  </si>
+  <si>
+    <t>PetARR_petName_221</t>
+  </si>
+  <si>
+    <t>PetARR_petName_222</t>
+  </si>
+  <si>
+    <t>PetARR_petName_223</t>
+  </si>
+  <si>
+    <t>PetARR_petName_224</t>
+  </si>
+  <si>
+    <t>PetARR_petName_225</t>
+  </si>
+  <si>
+    <t>PetARR_petName_226</t>
+  </si>
+  <si>
+    <t>PetARR_petName_227</t>
+  </si>
+  <si>
+    <t>PetARR_petName_228</t>
+  </si>
+  <si>
+    <t>PetARR_petName_229</t>
+  </si>
+  <si>
+    <t>PetARR_petName_230</t>
+  </si>
+  <si>
+    <t>PetARR_petName_231</t>
+  </si>
+  <si>
+    <t>PetARR_petName_232</t>
+  </si>
+  <si>
+    <t>PetARR_petName_233</t>
+  </si>
+  <si>
+    <t>PetARR_petName_234</t>
+  </si>
+  <si>
+    <t>PetARR_petName_235</t>
+  </si>
+  <si>
+    <t>PetARR_petName_236</t>
+  </si>
+  <si>
+    <t>PetARR_petName_237</t>
+  </si>
+  <si>
+    <t>PetARR_petName_238</t>
+  </si>
+  <si>
+    <t>PetARR_petName_239</t>
+  </si>
+  <si>
+    <t>PetARR_petName_240</t>
+  </si>
+  <si>
+    <t>PetARR_petName_241</t>
+  </si>
+  <si>
+    <t>PetARR_petName_242</t>
+  </si>
+  <si>
+    <t>PetARR_petName_243</t>
+  </si>
+  <si>
+    <t>PetARR_petName_244</t>
+  </si>
+  <si>
+    <t>PetARR_petName_245</t>
+  </si>
+  <si>
+    <t>水·蓝波</t>
+  </si>
+  <si>
+    <t>水·冰雪</t>
+  </si>
+  <si>
+    <t>水·涟漪</t>
+  </si>
+  <si>
+    <t>水·海影</t>
+  </si>
+  <si>
+    <t>水·冰妃</t>
+  </si>
+  <si>
+    <t>水·清泉</t>
+  </si>
+  <si>
+    <t>水·蓝钰</t>
+  </si>
+  <si>
+    <t>火·烬舞</t>
+  </si>
+  <si>
+    <t>火·熔光</t>
+  </si>
+  <si>
+    <t>火·炽影</t>
+  </si>
+  <si>
+    <t>火·摇曳</t>
+  </si>
+  <si>
+    <t>火·焚花</t>
+  </si>
+  <si>
+    <t>火·赤翼</t>
+  </si>
+  <si>
+    <t>木·樱林</t>
+  </si>
+  <si>
+    <t>木·翠影</t>
+  </si>
+  <si>
+    <t>木·梧韵</t>
+  </si>
+  <si>
+    <t>木·茶枝</t>
+  </si>
+  <si>
+    <t>木·桃语</t>
+  </si>
+  <si>
+    <t>木·竹风</t>
+  </si>
+  <si>
+    <t>木·松雨</t>
+  </si>
+  <si>
+    <t>土·沧峰</t>
+  </si>
+  <si>
+    <t>土·翠谷</t>
+  </si>
+  <si>
+    <t>土·黄域</t>
+  </si>
+  <si>
+    <t>土·绿枝</t>
+  </si>
+  <si>
+    <t>土·岩坡</t>
+  </si>
+  <si>
+    <t>土·花翼</t>
+  </si>
+  <si>
+    <t>土·青峦</t>
+  </si>
+  <si>
+    <t>光·晚霞</t>
+  </si>
+  <si>
+    <t>光·日曦</t>
+  </si>
+  <si>
+    <t>光·云舞</t>
+  </si>
+  <si>
+    <t>光·朝辉</t>
+  </si>
+  <si>
+    <t>光·明影</t>
+  </si>
+  <si>
+    <t>光·云露</t>
+  </si>
+  <si>
+    <t>光·破晓</t>
+  </si>
+  <si>
+    <t>暗·魄刃</t>
+  </si>
+  <si>
+    <t>暗·雪影</t>
+  </si>
+  <si>
+    <t>暗·夜薇</t>
+  </si>
+  <si>
+    <t>暗·幽风</t>
+  </si>
+  <si>
+    <t>暗·冥月</t>
+  </si>
+  <si>
+    <t>暗·影莲</t>
+  </si>
+  <si>
+    <t>暗·墨翎</t>
+  </si>
+  <si>
+    <t>Water · Ice</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water · Wave</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water · Ripples</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water · Sea</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water · Princess</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water · Springs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water · Yu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire · Dance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire · Molten</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire · Shadow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire · Swaying</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire · Flowers</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire · Wing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood · Sakura</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood · Shadow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood · Sycamore</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood · Branches</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood · Momo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood · Wind</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>火·笙桦</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire · Betula</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood · Pine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth · Peak</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth · Valley</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth · Domain</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth · Branches</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth · Rock</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth · Wings</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth · Mountains</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth · Sunset</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth · Sunshine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light · Dance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light · Dawn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light · Shadow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light · Cloud</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light · Break</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark · Blade</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark · Shadow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark · Nightway</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark · Wind</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark · Moon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark · Lotus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark · Feather</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8948,10 +9369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T996"/>
+  <dimension ref="A1:T1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A992" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D994" sqref="D994"/>
+    <sheetView tabSelected="1" topLeftCell="A995" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1016" sqref="D1016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -29557,6 +29978,846 @@
       </c>
       <c r="F996" s="1" t="s">
         <v>2745</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A997" s="1">
+        <v>993</v>
+      </c>
+      <c r="B997" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C997" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D997" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="E997" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="F997" s="1" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A998" s="1">
+        <v>994</v>
+      </c>
+      <c r="B998" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C998" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D998" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="E998" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F998" s="1" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A999" s="1">
+        <v>995</v>
+      </c>
+      <c r="B999" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C999" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D999" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E999" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="F999" s="1" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1000" s="1">
+        <v>996</v>
+      </c>
+      <c r="B1000" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C1000" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1000" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="E1000" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="F1000" s="1" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1001" s="1">
+        <v>997</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C1001" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="D1001" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="E1001" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="F1001" s="1" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1002" s="1">
+        <v>998</v>
+      </c>
+      <c r="B1002" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C1002" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D1002" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E1002" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="F1002" s="1" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1003" s="1">
+        <v>999</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D1003" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E1003" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F1003" s="1" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1004" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D1004" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="E1004" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F1004" s="1" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1005" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="D1005" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E1005" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F1005" s="1" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1006" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D1006" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="E1006" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F1006" s="1" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1007" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B1007" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C1007" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D1007" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E1007" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="F1007" s="1" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1008" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C1008" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D1008" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E1008" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F1008" s="1" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1009" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C1009" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D1009" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="E1009" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="F1009" s="1" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1010" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C1010" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D1010" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="E1010" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="F1010" s="1" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1011" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C1011" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D1011" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="E1011" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="F1011" s="1" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1012" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C1012" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="D1012" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="E1012" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="F1012" s="1" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1013" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C1013" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D1013" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="E1013" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F1013" s="1" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1014" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C1014" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D1014" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="E1014" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F1014" s="1" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1015" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C1015" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D1015" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1015" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F1015" s="1" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1016" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B1016" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C1016" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D1016" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="E1016" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F1016" s="1" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1017" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C1017" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D1017" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E1017" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="F1017" s="1" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1018" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C1018" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D1018" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E1018" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F1018" s="1" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1019" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C1019" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D1019" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="E1019" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F1019" s="1" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1020" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C1020" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="D1020" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E1020" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="F1020" s="1" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1021" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="C1021" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="D1021" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E1021" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="F1021" s="1" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1022" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C1022" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D1022" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="E1022" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="F1022" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1023" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C1023" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D1023" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E1023" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="F1023" s="1" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1024" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C1024" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D1024" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E1024" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="F1024" s="1" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1025" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1025" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D1025" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E1025" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="F1025" s="1" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1026" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C1026" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1026" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E1026" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F1026" s="1" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1027" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C1027" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="D1027" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="E1027" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="F1027" s="1" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1028" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C1028" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D1028" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E1028" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="F1028" s="1" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1029" s="1">
+        <v>1025</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C1029" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D1029" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E1029" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F1029" s="1" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1030" s="1">
+        <v>1026</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C1030" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D1030" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E1030" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F1030" s="1" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1031" s="1">
+        <v>1027</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C1031" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D1031" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E1031" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="F1031" s="1" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1032" s="1">
+        <v>1028</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C1032" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="D1032" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E1032" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="F1032" s="1" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1033" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C1033" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D1033" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E1033" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="F1033" s="1" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1034" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C1034" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D1034" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E1034" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="F1034" s="1" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1035" s="1">
+        <v>1031</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C1035" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D1035" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E1035" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F1035" s="1" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1036" s="1">
+        <v>1032</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C1036" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="D1036" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E1036" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="F1036" s="1" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1037" s="1">
+        <v>1033</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C1037" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="D1037" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="E1037" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="F1037" s="1" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1038" s="1">
+        <v>1034</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C1038" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D1038" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="E1038" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F1038" s="1" t="s">
+        <v>2874</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C589ACCB-562F-4237-86C3-AD6E7B1B0DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD57CEA-3B27-4FD0-8AB9-63BAB5D13252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7961,9 +7961,6 @@
     <t>请过{0}秒后再使用娃娃机！</t>
   </si>
   <si>
-    <t>Claw_Tips_11</t>
-  </si>
-  <si>
     <t>You're already using the claw machine!</t>
   </si>
   <si>
@@ -8734,6 +8731,10 @@
   </si>
   <si>
     <t>Dark · Feather</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claw_Tips_11</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9371,8 +9372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A995" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1016" sqref="D1016"/>
+    <sheetView tabSelected="1" topLeftCell="A929" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H948" sqref="H948"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -28808,16 +28809,16 @@
         <v>2573</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="D938" s="1" t="s">
         <v>2574</v>
       </c>
       <c r="E938" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="F938" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.35">
@@ -28828,16 +28829,16 @@
         <v>2575</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="D939" s="1" t="s">
         <v>2576</v>
       </c>
       <c r="E939" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="F939" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.35">
@@ -28848,16 +28849,16 @@
         <v>2577</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D940" s="1" t="s">
         <v>2578</v>
       </c>
       <c r="E940" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="F940" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.35">
@@ -28868,16 +28869,16 @@
         <v>2579</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="D941" s="1" t="s">
         <v>2580</v>
       </c>
       <c r="E941" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="F941" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.35">
@@ -28888,16 +28889,16 @@
         <v>2581</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D942" s="1" t="s">
         <v>2582</v>
       </c>
       <c r="E942" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="F942" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.35">
@@ -28908,16 +28909,16 @@
         <v>2583</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="D943" s="1" t="s">
         <v>2584</v>
       </c>
       <c r="E943" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="F943" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.35">
@@ -28928,16 +28929,16 @@
         <v>2585</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="D944" s="1" t="s">
         <v>2586</v>
       </c>
       <c r="E944" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="F944" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.35">
@@ -28948,16 +28949,16 @@
         <v>2587</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="D945" s="1" t="s">
         <v>2588</v>
       </c>
       <c r="E945" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="F945" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.35">
@@ -28968,16 +28969,16 @@
         <v>2589</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="D946" s="1" t="s">
         <v>2590</v>
       </c>
       <c r="E946" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="F946" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.35">
@@ -28988,16 +28989,16 @@
         <v>2591</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="D947" s="1" t="s">
         <v>2592</v>
       </c>
       <c r="E947" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="F947" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.35">
@@ -29008,16 +29009,16 @@
         <v>2593</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="D948" s="1" t="s">
         <v>2535</v>
       </c>
       <c r="E948" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="F948" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.35">
@@ -29028,16 +29029,16 @@
         <v>2594</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="D949" s="1" t="s">
         <v>2595</v>
       </c>
       <c r="E949" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="F949" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.35">
@@ -29048,16 +29049,16 @@
         <v>2596</v>
       </c>
       <c r="C950" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="D950" s="1" t="s">
         <v>2597</v>
       </c>
       <c r="E950" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="F950" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.35">
@@ -29068,16 +29069,16 @@
         <v>2598</v>
       </c>
       <c r="C951" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="D951" s="1" t="s">
         <v>2599</v>
       </c>
       <c r="E951" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="F951" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.35">
@@ -29088,16 +29089,16 @@
         <v>2600</v>
       </c>
       <c r="C952" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="D952" s="1" t="s">
         <v>2601</v>
       </c>
       <c r="E952" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="F952" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.35">
@@ -29108,16 +29109,16 @@
         <v>2602</v>
       </c>
       <c r="C953" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="D953" s="1" t="s">
         <v>2603</v>
       </c>
       <c r="E953" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="F953" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.35">
@@ -29128,16 +29129,16 @@
         <v>2604</v>
       </c>
       <c r="C954" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="D954" s="1" t="s">
         <v>2605</v>
       </c>
       <c r="E954" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="F954" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.35">
@@ -29148,16 +29149,16 @@
         <v>2606</v>
       </c>
       <c r="C955" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D955" s="1" t="s">
         <v>2607</v>
       </c>
       <c r="E955" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="F955" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.35">
@@ -29168,16 +29169,16 @@
         <v>2608</v>
       </c>
       <c r="C956" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="D956" s="1" t="s">
         <v>2609</v>
       </c>
       <c r="E956" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="F956" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.35">
@@ -29188,16 +29189,16 @@
         <v>2610</v>
       </c>
       <c r="C957" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="D957" s="1" t="s">
         <v>2611</v>
       </c>
       <c r="E957" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="F957" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.35">
@@ -29208,16 +29209,16 @@
         <v>2612</v>
       </c>
       <c r="C958" s="1" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="D958" s="1" t="s">
         <v>2613</v>
       </c>
       <c r="E958" s="1" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="F958" s="1" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.35">
@@ -29228,16 +29229,16 @@
         <v>2614</v>
       </c>
       <c r="C959" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="D959" s="1" t="s">
         <v>2615</v>
       </c>
       <c r="E959" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="F959" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.35">
@@ -29248,16 +29249,16 @@
         <v>2616</v>
       </c>
       <c r="C960" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D960" s="1" t="s">
         <v>2617</v>
       </c>
       <c r="E960" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="F960" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.35">
@@ -29268,16 +29269,16 @@
         <v>2618</v>
       </c>
       <c r="C961" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="D961" s="1" t="s">
         <v>2619</v>
       </c>
       <c r="E961" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="F961" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.35">
@@ -29288,16 +29289,16 @@
         <v>2620</v>
       </c>
       <c r="C962" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="D962" s="1" t="s">
         <v>2621</v>
       </c>
       <c r="E962" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="F962" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.35">
@@ -29308,16 +29309,16 @@
         <v>2622</v>
       </c>
       <c r="C963" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="D963" s="1" t="s">
         <v>2623</v>
       </c>
       <c r="E963" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="F963" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.35">
@@ -29328,16 +29329,16 @@
         <v>2624</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="D964" s="1" t="s">
         <v>2625</v>
       </c>
       <c r="E964" s="1" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="F964" s="1" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.35">
@@ -29348,16 +29349,16 @@
         <v>2626</v>
       </c>
       <c r="C965" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="D965" s="1" t="s">
         <v>2627</v>
       </c>
       <c r="E965" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="F965" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.35">
@@ -29368,16 +29369,16 @@
         <v>2628</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="D966" s="1" t="s">
         <v>2629</v>
       </c>
       <c r="E966" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="F966" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.35">
@@ -29388,16 +29389,16 @@
         <v>2630</v>
       </c>
       <c r="C967" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="D967" s="1" t="s">
         <v>2631</v>
       </c>
       <c r="E967" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="F967" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.35">
@@ -29485,19 +29486,19 @@
         <v>968</v>
       </c>
       <c r="B972" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C972" s="26" t="s">
         <v>2644</v>
       </c>
-      <c r="C972" s="26" t="s">
+      <c r="D972" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="D972" s="1" t="s">
-        <v>2646</v>
-      </c>
       <c r="E972" s="26" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="F972" s="26" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.35">
@@ -29505,19 +29506,19 @@
         <v>969</v>
       </c>
       <c r="B973" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D973" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="C973" s="1" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D973" s="1" t="s">
-        <v>2648</v>
-      </c>
       <c r="E973" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="F973" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.35">
@@ -29525,19 +29526,19 @@
         <v>970</v>
       </c>
       <c r="B974" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C974" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="C974" s="1" t="s">
+      <c r="D974" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="D974" s="1" t="s">
-        <v>2651</v>
-      </c>
       <c r="E974" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="F974" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.35">
@@ -29545,19 +29546,19 @@
         <v>971</v>
       </c>
       <c r="B975" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C975" s="1" t="s">
         <v>2652</v>
       </c>
-      <c r="C975" s="1" t="s">
+      <c r="D975" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="D975" s="1" t="s">
-        <v>2654</v>
-      </c>
       <c r="E975" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="F975" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.35">
@@ -29565,19 +29566,19 @@
         <v>972</v>
       </c>
       <c r="B976" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="D976" s="1" t="s">
         <v>2655</v>
       </c>
-      <c r="C976" s="1" t="s">
-        <v>2694</v>
-      </c>
-      <c r="D976" s="1" t="s">
-        <v>2656</v>
-      </c>
       <c r="E976" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="F976" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.35">
@@ -29585,19 +29586,19 @@
         <v>973</v>
       </c>
       <c r="B977" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D977" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="C977" s="1" t="s">
-        <v>2695</v>
-      </c>
-      <c r="D977" s="1" t="s">
-        <v>2658</v>
-      </c>
       <c r="E977" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="F977" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.35">
@@ -29605,19 +29606,19 @@
         <v>974</v>
       </c>
       <c r="B978" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D978" s="1" t="s">
         <v>2659</v>
       </c>
-      <c r="C978" s="1" t="s">
-        <v>2696</v>
-      </c>
-      <c r="D978" s="1" t="s">
-        <v>2660</v>
-      </c>
       <c r="E978" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="F978" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.35">
@@ -29625,19 +29626,19 @@
         <v>975</v>
       </c>
       <c r="B979" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D979" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="C979" s="1" t="s">
-        <v>2697</v>
-      </c>
-      <c r="D979" s="1" t="s">
-        <v>2662</v>
-      </c>
       <c r="E979" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="F979" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.35">
@@ -29645,19 +29646,19 @@
         <v>976</v>
       </c>
       <c r="B980" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="D980" s="1" t="s">
         <v>2663</v>
       </c>
-      <c r="C980" s="1" t="s">
-        <v>2698</v>
-      </c>
-      <c r="D980" s="1" t="s">
-        <v>2664</v>
-      </c>
       <c r="E980" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="F980" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.35">
@@ -29665,19 +29666,19 @@
         <v>977</v>
       </c>
       <c r="B981" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="C981" s="27" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D981" s="27" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="E981" s="27" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="F981" s="27" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.35">
@@ -29685,19 +29686,19 @@
         <v>978</v>
       </c>
       <c r="B982" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="C982" s="27" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="D982" s="27" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="E982" s="27" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="F982" s="27" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.35">
@@ -29705,19 +29706,19 @@
         <v>979</v>
       </c>
       <c r="B983" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C983" s="28" t="s">
         <v>2667</v>
       </c>
-      <c r="C983" s="28" t="s">
+      <c r="D983" s="28" t="s">
         <v>2668</v>
       </c>
-      <c r="D983" s="28" t="s">
-        <v>2669</v>
-      </c>
       <c r="E983" s="28" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="F983" s="28" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.35">
@@ -29725,19 +29726,19 @@
         <v>980</v>
       </c>
       <c r="B984" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C984" s="28" t="s">
         <v>2670</v>
       </c>
-      <c r="C984" s="28" t="s">
+      <c r="D984" s="28" t="s">
         <v>2671</v>
       </c>
-      <c r="D984" s="28" t="s">
-        <v>2672</v>
-      </c>
       <c r="E984" s="28" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="F984" s="28" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.35">
@@ -29745,19 +29746,19 @@
         <v>981</v>
       </c>
       <c r="B985" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C985" s="28" t="s">
         <v>2673</v>
       </c>
-      <c r="C985" s="28" t="s">
+      <c r="D985" s="28" t="s">
         <v>2674</v>
       </c>
-      <c r="D985" s="28" t="s">
-        <v>2675</v>
-      </c>
       <c r="E985" s="28" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="F985" s="28" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.35">
@@ -29765,19 +29766,19 @@
         <v>982</v>
       </c>
       <c r="B986" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="C986" s="27" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="D986" s="27" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="E986" s="27" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="F986" s="27" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.35">
@@ -29785,19 +29786,19 @@
         <v>983</v>
       </c>
       <c r="B987" s="1" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="C987" s="27" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="D987" s="27" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="E987" s="27" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="F987" s="27" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.35">
@@ -29805,19 +29806,19 @@
         <v>984</v>
       </c>
       <c r="B988" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C988" s="28" t="s">
         <v>2678</v>
       </c>
-      <c r="C988" s="28" t="s">
+      <c r="D988" s="28" t="s">
         <v>2679</v>
       </c>
-      <c r="D988" s="28" t="s">
-        <v>2680</v>
-      </c>
       <c r="E988" s="28" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="F988" s="28" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.35">
@@ -29825,19 +29826,19 @@
         <v>985</v>
       </c>
       <c r="B989" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C989" s="28" t="s">
         <v>2681</v>
       </c>
-      <c r="C989" s="28" t="s">
+      <c r="D989" s="28" t="s">
         <v>2682</v>
       </c>
-      <c r="D989" s="28" t="s">
-        <v>2683</v>
-      </c>
       <c r="E989" s="28" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="F989" s="28" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.35">
@@ -29845,19 +29846,19 @@
         <v>986</v>
       </c>
       <c r="B990" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="C990" s="28" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D990" s="28" t="s">
         <v>2684</v>
       </c>
-      <c r="D990" s="28" t="s">
-        <v>2685</v>
-      </c>
       <c r="E990" s="28" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="F990" s="28" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.35">
@@ -29865,19 +29866,19 @@
         <v>987</v>
       </c>
       <c r="B991" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="C991" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="D991" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E991" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="E991" s="1" t="s">
-        <v>2740</v>
-      </c>
       <c r="F991" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="992" spans="1:6" ht="247.5" x14ac:dyDescent="0.35">
@@ -29885,19 +29886,19 @@
         <v>988</v>
       </c>
       <c r="B992" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="C992" s="23" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="D992" s="23" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E992" s="23" t="s">
         <v>2737</v>
       </c>
-      <c r="E992" s="23" t="s">
-        <v>2738</v>
-      </c>
       <c r="F992" s="23" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.35">
@@ -29905,19 +29906,19 @@
         <v>989</v>
       </c>
       <c r="B993" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="C993" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="D993" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E993" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="E993" s="1" t="s">
-        <v>2736</v>
-      </c>
       <c r="F993" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="994" spans="1:6" ht="363" x14ac:dyDescent="0.35">
@@ -29925,19 +29926,19 @@
         <v>990</v>
       </c>
       <c r="B994" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="C994" s="23" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="D994" s="23" t="s">
+        <v>2746</v>
+      </c>
+      <c r="E994" s="23" t="s">
         <v>2747</v>
       </c>
-      <c r="E994" s="23" t="s">
-        <v>2748</v>
-      </c>
       <c r="F994" s="23" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.35">
@@ -29945,19 +29946,19 @@
         <v>991</v>
       </c>
       <c r="B995" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="C995" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D995" s="1" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="E995" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="F995" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.35">
@@ -29965,19 +29966,19 @@
         <v>992</v>
       </c>
       <c r="B996" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="D996" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E996" s="1" t="s">
         <v>2744</v>
       </c>
-      <c r="E996" s="1" t="s">
-        <v>2745</v>
-      </c>
       <c r="F996" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.35">
@@ -29985,19 +29986,19 @@
         <v>993</v>
       </c>
       <c r="B997" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="D997" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="E997" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="F997" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.35">
@@ -30005,19 +30006,19 @@
         <v>994</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C998" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D998" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="E998" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="F998" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.35">
@@ -30025,19 +30026,19 @@
         <v>995</v>
       </c>
       <c r="B999" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="D999" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="E999" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="F999" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.35">
@@ -30045,19 +30046,19 @@
         <v>996</v>
       </c>
       <c r="B1000" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="C1000" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D1000" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="E1000" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="F1000" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.35">
@@ -30065,19 +30066,19 @@
         <v>997</v>
       </c>
       <c r="B1001" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="C1001" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="D1001" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="E1001" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="F1001" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.35">
@@ -30085,19 +30086,19 @@
         <v>998</v>
       </c>
       <c r="B1002" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="D1002" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="E1002" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="F1002" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.35">
@@ -30105,19 +30106,19 @@
         <v>999</v>
       </c>
       <c r="B1003" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="C1003" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="D1003" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="E1003" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="F1003" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.35">
@@ -30125,19 +30126,19 @@
         <v>1000</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C1004" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="D1004" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="E1004" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="F1004" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="0.35">
@@ -30145,19 +30146,19 @@
         <v>1001</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="C1005" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="D1005" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="E1005" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="F1005" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.35">
@@ -30165,19 +30166,19 @@
         <v>1002</v>
       </c>
       <c r="B1006" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="C1006" s="1" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="D1006" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="E1006" s="1" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="F1006" s="1" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.35">
@@ -30185,19 +30186,19 @@
         <v>1003</v>
       </c>
       <c r="B1007" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="C1007" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="D1007" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="E1007" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="F1007" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.35">
@@ -30205,19 +30206,19 @@
         <v>1004</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="C1008" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="D1008" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E1008" s="1" t="s">
         <v>2851</v>
       </c>
-      <c r="E1008" s="1" t="s">
-        <v>2852</v>
-      </c>
       <c r="F1008" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.35">
@@ -30225,19 +30226,19 @@
         <v>1005</v>
       </c>
       <c r="B1009" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="C1009" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="D1009" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="E1009" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="F1009" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.35">
@@ -30245,19 +30246,19 @@
         <v>1006</v>
       </c>
       <c r="B1010" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="C1010" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="D1010" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="E1010" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="F1010" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.35">
@@ -30265,19 +30266,19 @@
         <v>1007</v>
       </c>
       <c r="B1011" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="C1011" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="D1011" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="E1011" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="F1011" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.35">
@@ -30285,19 +30286,19 @@
         <v>1008</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="C1012" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="D1012" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="E1012" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="F1012" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1013" spans="1:6" x14ac:dyDescent="0.35">
@@ -30305,19 +30306,19 @@
         <v>1009</v>
       </c>
       <c r="B1013" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="C1013" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="D1013" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="E1013" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="F1013" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.35">
@@ -30325,19 +30326,19 @@
         <v>1010</v>
       </c>
       <c r="B1014" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="C1014" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="D1014" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="E1014" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="F1014" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.35">
@@ -30345,19 +30346,19 @@
         <v>1011</v>
       </c>
       <c r="B1015" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="C1015" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="D1015" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="E1015" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="F1015" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.35">
@@ -30365,19 +30366,19 @@
         <v>1012</v>
       </c>
       <c r="B1016" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="C1016" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="D1016" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="E1016" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="F1016" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.35">
@@ -30385,19 +30386,19 @@
         <v>1013</v>
       </c>
       <c r="B1017" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="C1017" s="1" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="D1017" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="E1017" s="1" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="F1017" s="1" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.35">
@@ -30405,19 +30406,19 @@
         <v>1014</v>
       </c>
       <c r="B1018" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="C1018" s="1" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="D1018" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="E1018" s="1" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="F1018" s="1" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.35">
@@ -30425,19 +30426,19 @@
         <v>1015</v>
       </c>
       <c r="B1019" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="C1019" s="1" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="D1019" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="E1019" s="1" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="F1019" s="1" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.35">
@@ -30445,19 +30446,19 @@
         <v>1016</v>
       </c>
       <c r="B1020" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="C1020" s="1" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="D1020" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="E1020" s="1" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="F1020" s="1" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.35">
@@ -30465,19 +30466,19 @@
         <v>1017</v>
       </c>
       <c r="B1021" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="C1021" s="1" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="D1021" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="E1021" s="1" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="F1021" s="1" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.35">
@@ -30485,19 +30486,19 @@
         <v>1018</v>
       </c>
       <c r="B1022" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="C1022" s="1" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="D1022" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="E1022" s="1" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="F1022" s="1" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.35">
@@ -30505,19 +30506,19 @@
         <v>1019</v>
       </c>
       <c r="B1023" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C1023" s="1" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="D1023" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="E1023" s="1" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="F1023" s="1" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="1024" spans="1:6" x14ac:dyDescent="0.35">
@@ -30525,19 +30526,19 @@
         <v>1020</v>
       </c>
       <c r="B1024" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="C1024" s="1" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="D1024" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="E1024" s="1" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="F1024" s="1" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.35">
@@ -30545,19 +30546,19 @@
         <v>1021</v>
       </c>
       <c r="B1025" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C1025" s="1" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="D1025" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="E1025" s="1" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="F1025" s="1" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.35">
@@ -30565,19 +30566,19 @@
         <v>1022</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="C1026" s="1" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="D1026" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="E1026" s="1" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="F1026" s="1" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="1027" spans="1:6" x14ac:dyDescent="0.35">
@@ -30585,19 +30586,19 @@
         <v>1023</v>
       </c>
       <c r="B1027" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="C1027" s="1" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="D1027" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="E1027" s="1" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="F1027" s="1" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="1028" spans="1:6" x14ac:dyDescent="0.35">
@@ -30605,19 +30606,19 @@
         <v>1024</v>
       </c>
       <c r="B1028" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="C1028" s="1" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="D1028" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="E1028" s="1" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="F1028" s="1" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="1029" spans="1:6" x14ac:dyDescent="0.35">
@@ -30625,19 +30626,19 @@
         <v>1025</v>
       </c>
       <c r="B1029" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="C1029" s="1" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="D1029" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="E1029" s="1" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="F1029" s="1" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1030" spans="1:6" x14ac:dyDescent="0.35">
@@ -30645,19 +30646,19 @@
         <v>1026</v>
       </c>
       <c r="B1030" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="C1030" s="1" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="D1030" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="E1030" s="1" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="F1030" s="1" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="0.35">
@@ -30665,19 +30666,19 @@
         <v>1027</v>
       </c>
       <c r="B1031" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="C1031" s="1" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="D1031" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="E1031" s="1" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="F1031" s="1" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="1032" spans="1:6" x14ac:dyDescent="0.35">
@@ -30685,19 +30686,19 @@
         <v>1028</v>
       </c>
       <c r="B1032" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="C1032" s="1" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="D1032" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="E1032" s="1" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="F1032" s="1" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.35">
@@ -30705,19 +30706,19 @@
         <v>1029</v>
       </c>
       <c r="B1033" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="C1033" s="1" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="D1033" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="E1033" s="1" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="F1033" s="1" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="1034" spans="1:6" x14ac:dyDescent="0.35">
@@ -30725,19 +30726,19 @@
         <v>1030</v>
       </c>
       <c r="B1034" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="C1034" s="1" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="D1034" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="E1034" s="1" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="F1034" s="1" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.35">
@@ -30745,19 +30746,19 @@
         <v>1031</v>
       </c>
       <c r="B1035" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="C1035" s="1" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="D1035" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="E1035" s="1" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="F1035" s="1" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="1036" spans="1:6" x14ac:dyDescent="0.35">
@@ -30765,19 +30766,19 @@
         <v>1032</v>
       </c>
       <c r="B1036" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="C1036" s="1" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="D1036" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="E1036" s="1" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="F1036" s="1" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="0.35">
@@ -30785,19 +30786,19 @@
         <v>1033</v>
       </c>
       <c r="B1037" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="C1037" s="1" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="D1037" s="1" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="E1037" s="1" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="F1037" s="1" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="0.35">
@@ -30805,19 +30806,19 @@
         <v>1034</v>
       </c>
       <c r="B1038" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="C1038" s="1" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="D1038" s="1" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="E1038" s="1" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="F1038" s="1" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -4842,7 +4842,7 @@
     <t>Task_Info_20</t>
   </si>
   <si>
-    <t>Hatch {0} pets of rare or above from the undersea egg</t>
+    <t>Hatch {0} pets of Rare or above rarity</t>
   </si>
   <si>
     <t>从海底蛋中孵化{0}只稀有以上的宠物</t>
@@ -9824,8 +9824,8 @@
   <sheetPr/>
   <dimension ref="A1:T1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A590" workbookViewId="0">
-      <selection activeCell="F605" sqref="F605"/>
+    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
+      <selection activeCell="G604" sqref="G604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5"/>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA374D6-96BE-4F20-B239-5ED00284BFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA2838E-2AD5-4FCB-BA37-2C7335E51271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5187" uniqueCount="2912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5211" uniqueCount="2923">
   <si>
     <t>int</t>
   </si>
@@ -8659,18 +8659,12 @@
     <t>暗·墨翎</t>
   </si>
   <si>
-    <t>CurrentRoomId</t>
-  </si>
-  <si>
     <t>当前房间Id：{0}</t>
   </si>
   <si>
     <t>JumpGameFailed</t>
   </si>
   <si>
-    <t>跳转房间失败！</t>
-  </si>
-  <si>
     <t>Fill this pet with love!</t>
   </si>
   <si>
@@ -8768,9 +8762,6 @@
   </si>
   <si>
     <t>Current room id:{0}</t>
-  </si>
-  <si>
-    <t>Switch Room Failed!</t>
   </si>
   <si>
     <t>1. Each pet attacks gold or diamonds with 1 point of stamina.
@@ -8779,12 +8770,55 @@
 4. When the current stamina reaches the maximum stamina, it will no longer recover over time.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>CurrentRoomId</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch Room Failed! </t>
+  </si>
+  <si>
+    <t>切换房间失败！</t>
+  </si>
+  <si>
+    <t>SwitchRoomBtn</t>
+  </si>
+  <si>
+    <t>Switch room</t>
+  </si>
+  <si>
+    <t>切换房间</t>
+  </si>
+  <si>
+    <t>JumpRoomText001</t>
+  </si>
+  <si>
+    <t>Switch to a designated room</t>
+  </si>
+  <si>
+    <t>切换至指定房间</t>
+  </si>
+  <si>
+    <t>JumpRoomText002</t>
+  </si>
+  <si>
+    <t>Please enter the room ID</t>
+  </si>
+  <si>
+    <t>请输入房间id</t>
+  </si>
+  <si>
+    <t>SwitchRoomConfirm</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -8841,6 +8875,12 @@
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -8900,7 +8940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8979,6 +9019,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9362,10 +9408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1041"/>
+  <dimension ref="A1:T1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A988" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E994" sqref="E994"/>
+    <sheetView tabSelected="1" topLeftCell="A1009" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1029" sqref="D1029"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -15041,7 +15087,7 @@
         <v>635</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>637</v>
@@ -15075,7 +15121,7 @@
         <v>638</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>640</v>
@@ -15177,7 +15223,7 @@
         <v>647</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>649</v>
@@ -15197,7 +15243,7 @@
         <v>650</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>652</v>
@@ -15251,7 +15297,7 @@
         <v>656</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>658</v>
@@ -15271,7 +15317,7 @@
         <v>659</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>661</v>
@@ -15291,7 +15337,7 @@
         <v>662</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>664</v>
@@ -15311,7 +15357,7 @@
         <v>665</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>667</v>
@@ -15451,7 +15497,7 @@
         <v>685</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="D296" s="8" t="s">
         <v>687</v>
@@ -15505,7 +15551,7 @@
         <v>691</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>693</v>
@@ -15525,7 +15571,7 @@
         <v>694</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>696</v>
@@ -15585,7 +15631,7 @@
         <v>703</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>705</v>
@@ -15605,7 +15651,7 @@
         <v>706</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>708</v>
@@ -15625,7 +15671,7 @@
         <v>709</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>711</v>
@@ -16999,7 +17045,7 @@
         <v>913</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>915</v>
@@ -17259,7 +17305,7 @@
         <v>952</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="D385" s="10" t="s">
         <v>954</v>
@@ -17279,7 +17325,7 @@
         <v>955</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="D386" s="10" t="s">
         <v>957</v>
@@ -17567,7 +17613,7 @@
         <v>994</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="D399" s="15" t="s">
         <v>996</v>
@@ -17669,7 +17715,7 @@
         <v>1003</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="D402" s="14" t="s">
         <v>1005</v>
@@ -18451,7 +18497,7 @@
         <v>1072</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="D425" s="14" t="s">
         <v>1074</v>
@@ -18485,7 +18531,7 @@
         <v>1075</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="D426" s="14" t="s">
         <v>1077</v>
@@ -18519,7 +18565,7 @@
         <v>1078</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="D427" s="14" t="s">
         <v>1080</v>
@@ -18553,7 +18599,7 @@
         <v>1081</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="D428" s="14" t="s">
         <v>1083</v>
@@ -18757,7 +18803,7 @@
         <v>1099</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>1101</v>
@@ -21337,7 +21383,7 @@
         <v>1483</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="D563" s="1" t="s">
         <v>1485</v>
@@ -21577,7 +21623,7 @@
         <v>1519</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="D575" s="1" t="s">
         <v>1521</v>
@@ -21697,7 +21743,7 @@
         <v>1537</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="D581" s="1" t="s">
         <v>1539</v>
@@ -21917,7 +21963,7 @@
         <v>1570</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="D592" s="1" t="s">
         <v>1572</v>
@@ -22097,7 +22143,7 @@
         <v>1597</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="D601" s="1" t="s">
         <v>1599</v>
@@ -22117,7 +22163,7 @@
         <v>1600</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="D602" s="1" t="s">
         <v>1602</v>
@@ -22137,7 +22183,7 @@
         <v>1603</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="D603" s="1" t="s">
         <v>1605</v>
@@ -22157,7 +22203,7 @@
         <v>1606</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="D604" s="1" t="s">
         <v>1608</v>
@@ -29921,16 +29967,16 @@
         <v>2739</v>
       </c>
       <c r="C994" s="30" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="D994" s="23" t="s">
         <v>2740</v>
       </c>
       <c r="E994" s="30" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="F994" s="30" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.35">
@@ -30817,28 +30863,120 @@
       <c r="A1040" s="1">
         <v>1035</v>
       </c>
-      <c r="B1040" t="s">
+      <c r="B1040" s="29" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C1040" s="31" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D1040" s="29" t="s">
         <v>2873</v>
       </c>
-      <c r="C1040" s="1" t="s">
-        <v>2909</v>
-      </c>
-      <c r="D1040" s="29" t="s">
-        <v>2874</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1040" s="31" t="s">
+        <v>2907</v>
+      </c>
+      <c r="F1040" s="31" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1041" s="1">
         <v>1036</v>
       </c>
-      <c r="B1041" t="s">
-        <v>2875</v>
-      </c>
-      <c r="C1041" s="1" t="s">
+      <c r="B1041" s="29" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C1041" s="31" t="s">
         <v>2910</v>
       </c>
       <c r="D1041" s="29" t="s">
-        <v>2876</v>
+        <v>2911</v>
+      </c>
+      <c r="E1041" s="31" t="s">
+        <v>2910</v>
+      </c>
+      <c r="F1041" s="31" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1042" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B1042" s="29" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C1042" s="29" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D1042" s="29" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1042" s="29" t="s">
+        <v>2913</v>
+      </c>
+      <c r="F1042" s="29" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1043" s="1">
+        <v>1038</v>
+      </c>
+      <c r="B1043" s="29" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C1043" s="29" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D1043" s="29" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1043" s="29" t="s">
+        <v>2916</v>
+      </c>
+      <c r="F1043" s="29" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1044" s="1">
+        <v>1039</v>
+      </c>
+      <c r="B1044" s="29" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C1044" s="32" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D1044" s="29" t="s">
+        <v>2920</v>
+      </c>
+      <c r="E1044" s="32" t="s">
+        <v>2919</v>
+      </c>
+      <c r="F1044" s="32" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1045" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B1045" s="29" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C1045" s="29" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1045" s="29" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E1045" s="29" t="s">
+        <v>764</v>
+      </c>
+      <c r="F1045" s="29" t="s">
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA2838E-2AD5-4FCB-BA37-2C7335E51271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DD1695-7A0D-4D91-84BD-B9EE79807B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8659,9 +8659,6 @@
     <t>暗·墨翎</t>
   </si>
   <si>
-    <t>当前房间Id：{0}</t>
-  </si>
-  <si>
     <t>JumpGameFailed</t>
   </si>
   <si>
@@ -8759,9 +8756,6 @@
   </si>
   <si>
     <t>Destroy {0} coin chests at the aqua kingdom</t>
-  </si>
-  <si>
-    <t>Current room id:{0}</t>
   </si>
   <si>
     <t>1. Each pet attacks gold or diamonds with 1 point of stamina.
@@ -8802,9 +8796,6 @@
     <t>JumpRoomText002</t>
   </si>
   <si>
-    <t>Please enter the room ID</t>
-  </si>
-  <si>
     <t>请输入房间id</t>
   </si>
   <si>
@@ -8812,13 +8803,25 @@
   </si>
   <si>
     <t>确定</t>
+  </si>
+  <si>
+    <t>Room ID: {0}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间ID：{0}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter the Room ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -8881,6 +8884,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -9023,7 +9032,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -9411,7 +9420,7 @@
   <dimension ref="A1:T1045"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1009" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1029" sqref="D1029"/>
+      <selection activeCell="D1045" sqref="D1045"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -15087,7 +15096,7 @@
         <v>635</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>637</v>
@@ -15121,7 +15130,7 @@
         <v>638</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>640</v>
@@ -15223,7 +15232,7 @@
         <v>647</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>649</v>
@@ -15243,7 +15252,7 @@
         <v>650</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>652</v>
@@ -15297,7 +15306,7 @@
         <v>656</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>658</v>
@@ -15317,7 +15326,7 @@
         <v>659</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>661</v>
@@ -15337,7 +15346,7 @@
         <v>662</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>664</v>
@@ -15357,7 +15366,7 @@
         <v>665</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>667</v>
@@ -15497,7 +15506,7 @@
         <v>685</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="D296" s="8" t="s">
         <v>687</v>
@@ -15551,7 +15560,7 @@
         <v>691</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>693</v>
@@ -15571,7 +15580,7 @@
         <v>694</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>696</v>
@@ -15631,7 +15640,7 @@
         <v>703</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>705</v>
@@ -15651,7 +15660,7 @@
         <v>706</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>708</v>
@@ -15671,7 +15680,7 @@
         <v>709</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>711</v>
@@ -17045,7 +17054,7 @@
         <v>913</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>915</v>
@@ -17305,7 +17314,7 @@
         <v>952</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="D385" s="10" t="s">
         <v>954</v>
@@ -17325,7 +17334,7 @@
         <v>955</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="D386" s="10" t="s">
         <v>957</v>
@@ -17613,7 +17622,7 @@
         <v>994</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="D399" s="15" t="s">
         <v>996</v>
@@ -17715,7 +17724,7 @@
         <v>1003</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="D402" s="14" t="s">
         <v>1005</v>
@@ -18497,7 +18506,7 @@
         <v>1072</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="D425" s="14" t="s">
         <v>1074</v>
@@ -18531,7 +18540,7 @@
         <v>1075</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="D426" s="14" t="s">
         <v>1077</v>
@@ -18565,7 +18574,7 @@
         <v>1078</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="D427" s="14" t="s">
         <v>1080</v>
@@ -18599,7 +18608,7 @@
         <v>1081</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="D428" s="14" t="s">
         <v>1083</v>
@@ -18803,7 +18812,7 @@
         <v>1099</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>1101</v>
@@ -21383,7 +21392,7 @@
         <v>1483</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="D563" s="1" t="s">
         <v>1485</v>
@@ -21623,7 +21632,7 @@
         <v>1519</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="D575" s="1" t="s">
         <v>1521</v>
@@ -21743,7 +21752,7 @@
         <v>1537</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="D581" s="1" t="s">
         <v>1539</v>
@@ -21963,7 +21972,7 @@
         <v>1570</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="D592" s="1" t="s">
         <v>1572</v>
@@ -22143,7 +22152,7 @@
         <v>1597</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="D601" s="1" t="s">
         <v>1599</v>
@@ -22163,7 +22172,7 @@
         <v>1600</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="D602" s="1" t="s">
         <v>1602</v>
@@ -22183,7 +22192,7 @@
         <v>1603</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="D603" s="1" t="s">
         <v>1605</v>
@@ -22203,7 +22212,7 @@
         <v>1606</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="D604" s="1" t="s">
         <v>1608</v>
@@ -29967,16 +29976,16 @@
         <v>2739</v>
       </c>
       <c r="C994" s="30" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="D994" s="23" t="s">
         <v>2740</v>
       </c>
       <c r="E994" s="30" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="F994" s="30" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.35">
@@ -30864,19 +30873,19 @@
         <v>1035</v>
       </c>
       <c r="B1040" s="29" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="C1040" s="31" t="s">
-        <v>2907</v>
+        <v>2920</v>
       </c>
       <c r="D1040" s="29" t="s">
-        <v>2873</v>
+        <v>2921</v>
       </c>
       <c r="E1040" s="31" t="s">
-        <v>2907</v>
+        <v>2920</v>
       </c>
       <c r="F1040" s="31" t="s">
-        <v>2907</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.35">
@@ -30884,19 +30893,19 @@
         <v>1036</v>
       </c>
       <c r="B1041" s="29" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="C1041" s="31" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="D1041" s="29" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="E1041" s="31" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="F1041" s="31" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.35">
@@ -30904,19 +30913,19 @@
         <v>1037</v>
       </c>
       <c r="B1042" s="29" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C1042" s="29" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D1042" s="29" t="s">
         <v>2912</v>
       </c>
-      <c r="C1042" s="29" t="s">
-        <v>2913</v>
-      </c>
-      <c r="D1042" s="29" t="s">
-        <v>2914</v>
-      </c>
       <c r="E1042" s="29" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="F1042" s="29" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1043" spans="1:6" x14ac:dyDescent="0.35">
@@ -30924,19 +30933,19 @@
         <v>1038</v>
       </c>
       <c r="B1043" s="29" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C1043" s="29" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D1043" s="29" t="s">
         <v>2915</v>
       </c>
-      <c r="C1043" s="29" t="s">
-        <v>2916</v>
-      </c>
-      <c r="D1043" s="29" t="s">
-        <v>2917</v>
-      </c>
       <c r="E1043" s="29" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="F1043" s="29" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.35">
@@ -30944,19 +30953,19 @@
         <v>1039</v>
       </c>
       <c r="B1044" s="29" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="C1044" s="32" t="s">
-        <v>2919</v>
+        <v>2922</v>
       </c>
       <c r="D1044" s="29" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="E1044" s="32" t="s">
-        <v>2919</v>
+        <v>2922</v>
       </c>
       <c r="F1044" s="32" t="s">
-        <v>2919</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.35">
@@ -30964,13 +30973,13 @@
         <v>1040</v>
       </c>
       <c r="B1045" s="29" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="C1045" s="29" t="s">
         <v>764</v>
       </c>
       <c r="D1045" s="29" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="E1045" s="29" t="s">
         <v>764</v>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -9201,7 +9201,7 @@
   <dimension ref="A1:T1047"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1035" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1047" activeCellId="0" sqref="D1047"/>
+      <selection pane="topLeft" activeCell="C1047" activeCellId="0" sqref="C1047"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7286D337-E317-474A-A51C-C669542022C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8E9360-0D01-405E-B345-EF4E8276E791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5243" uniqueCount="2972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5248" uniqueCount="2975">
   <si>
     <t>int</t>
   </si>
@@ -8445,12 +8445,6 @@
     <t>CurrentRoomId</t>
   </si>
   <si>
-    <t>Room ID: {0}</t>
-  </si>
-  <si>
-    <t>房间ID：{0}</t>
-  </si>
-  <si>
     <t>JumpGameFailed</t>
   </si>
   <si>
@@ -8555,9 +8549,6 @@
   </si>
   <si>
     <t>Stamina mechanism</t>
-  </si>
-  <si>
-    <t>Current room id:{0}</t>
   </si>
   <si>
     <t>Switch Room Failed!</t>
@@ -9034,6 +9025,30 @@
   </si>
   <si>
     <t>Switch Room Failed!</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room ID: {0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch room</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间ID：{0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>开蛋！</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open!</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenEgg</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -9649,10 +9664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1047"/>
+  <dimension ref="A1:T1048"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A953" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1038" sqref="A1038"/>
+    <sheetView tabSelected="1" topLeftCell="A1010" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1041" sqref="F1041"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -14965,19 +14980,19 @@
         <v>257</v>
       </c>
       <c r="B261" s="31" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
@@ -14988,16 +15003,16 @@
         <v>581</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
@@ -15008,16 +15023,16 @@
         <v>582</v>
       </c>
       <c r="C263" s="33" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="D263" s="35" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
@@ -15028,16 +15043,16 @@
         <v>583</v>
       </c>
       <c r="C264" s="33" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
@@ -15048,16 +15063,16 @@
         <v>584</v>
       </c>
       <c r="C265" s="33" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="D265" s="35" t="s">
+        <v>2932</v>
+      </c>
+      <c r="E265" s="3" t="s">
         <v>2935</v>
       </c>
-      <c r="E265" s="3" t="s">
-        <v>2938</v>
-      </c>
       <c r="F265" s="3" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
@@ -15068,16 +15083,16 @@
         <v>585</v>
       </c>
       <c r="C266" s="33" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="D266" s="35" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
@@ -15088,16 +15103,16 @@
         <v>586</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="D267" s="35" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
@@ -15328,7 +15343,7 @@
         <v>620</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>621</v>
@@ -15396,7 +15411,7 @@
         <v>627</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>629</v>
@@ -15430,7 +15445,7 @@
         <v>630</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>632</v>
@@ -15875,7 +15890,7 @@
         <v>699</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="E302" s="3" t="s">
         <v>700</v>
@@ -21404,16 +21419,16 @@
         <v>1458</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="D552" s="16" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="E552" s="3" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="F552" s="3" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="553" spans="1:8" ht="33" x14ac:dyDescent="0.35">
@@ -21524,19 +21539,19 @@
         <v>1474</v>
       </c>
       <c r="C558" s="33" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="D558" s="31" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="E558" s="3" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="F558" s="3" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="H558" s="31" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.35">
@@ -21547,19 +21562,19 @@
         <v>1475</v>
       </c>
       <c r="C559" s="33" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="D559" s="31" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="E559" s="3" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="F559" s="3" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="H559" s="31" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.35">
@@ -21570,19 +21585,19 @@
         <v>1476</v>
       </c>
       <c r="C560" s="33" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="D560" s="31" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="E560" s="3" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="F560" s="3" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="H560" s="31" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.35">
@@ -21593,19 +21608,19 @@
         <v>1477</v>
       </c>
       <c r="C561" s="33" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="D561" s="31" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="E561" s="3" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="F561" s="3" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="H561" s="31" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.35">
@@ -21616,19 +21631,19 @@
         <v>1478</v>
       </c>
       <c r="C562" s="33" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="D562" s="31" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="E562" s="3" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="F562" s="3" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="H562" s="31" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.35">
@@ -21639,19 +21654,19 @@
         <v>1479</v>
       </c>
       <c r="C563" s="33" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="D563" s="31" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="E563" s="3" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="F563" s="3" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="H563" s="31" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.35">
@@ -21662,19 +21677,19 @@
         <v>1480</v>
       </c>
       <c r="C564" s="33" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="D564" s="31" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="E564" s="33" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="F564" s="3" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="H564" s="31" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.35">
@@ -21685,19 +21700,19 @@
         <v>1481</v>
       </c>
       <c r="C565" s="33" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="E565" s="3" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="F565" s="3" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="H565" s="31" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.35">
@@ -21708,19 +21723,19 @@
         <v>1482</v>
       </c>
       <c r="C566" s="33" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="D566" s="31" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="E566" s="3" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="F566" s="3" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="H566" s="31" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.35">
@@ -21731,19 +21746,19 @@
         <v>1483</v>
       </c>
       <c r="C567" s="33" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="D567" s="31" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="E567" s="3" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="F567" s="3" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="H567" s="31" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.35">
@@ -21754,19 +21769,19 @@
         <v>1484</v>
       </c>
       <c r="C568" s="33" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="D568" s="31" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="E568" s="3" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="F568" s="3" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="H568" s="31" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.35">
@@ -21777,19 +21792,19 @@
         <v>1485</v>
       </c>
       <c r="C569" s="33" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="D569" s="31" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="E569" s="3" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="F569" s="3" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="H569" s="31" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.35">
@@ -21800,19 +21815,19 @@
         <v>1486</v>
       </c>
       <c r="C570" s="33" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="D570" s="31" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="E570" s="3" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="F570" s="3" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="H570" s="31" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.35">
@@ -21823,19 +21838,19 @@
         <v>1487</v>
       </c>
       <c r="C571" s="33" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D571" s="31" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="E571" s="3" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="F571" s="3" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="H571" s="31" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.35">
@@ -21846,19 +21861,19 @@
         <v>1488</v>
       </c>
       <c r="C572" s="33" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="D572" s="31" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="E572" s="3" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="F572" s="3" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="H572" s="31" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.35">
@@ -21866,22 +21881,22 @@
         <v>569</v>
       </c>
       <c r="B573" s="31" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="C573" s="33" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="D573" s="31" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="E573" s="3" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="F573" s="3" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="H573" s="31" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="574" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -22112,16 +22127,16 @@
         <v>1524</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="E585" s="3" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="F585" s="3" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="586" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22152,16 +22167,16 @@
         <v>1528</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="E587" s="3" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="F587" s="3" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.35">
@@ -22192,16 +22207,16 @@
         <v>1532</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="E589" s="3" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="F589" s="3" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="590" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22212,16 +22227,16 @@
         <v>1533</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="E590" s="3" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="F590" s="3" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22232,7 +22247,7 @@
         <v>1534</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="D591" s="1" t="s">
         <v>1536</v>
@@ -22272,16 +22287,16 @@
         <v>1541</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="E593" s="3" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="F593" s="3" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="594" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22332,16 +22347,16 @@
         <v>1548</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="E596" s="3" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="F596" s="3" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="597" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22352,16 +22367,16 @@
         <v>1549</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="E597" s="3" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="F597" s="3" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="598" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22372,16 +22387,16 @@
         <v>1550</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="E598" s="3" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="F598" s="3" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.35">
@@ -22412,16 +22427,16 @@
         <v>1554</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="E600" s="3" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="F600" s="3" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="601" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22432,16 +22447,16 @@
         <v>1555</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="D601" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E601" s="3" t="s">
         <v>2937</v>
       </c>
-      <c r="E601" s="3" t="s">
-        <v>2940</v>
-      </c>
       <c r="F601" s="3" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="602" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22455,13 +22470,13 @@
         <v>1557</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="E602" s="3" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="F602" s="3" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="603" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22475,7 +22490,7 @@
         <v>1559</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="E603" s="3" t="s">
         <v>1560</v>
@@ -22495,13 +22510,13 @@
         <v>1562</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="E604" s="3" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="F604" s="3" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="605" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22512,16 +22527,16 @@
         <v>1563</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="E605" s="3" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="F605" s="3" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="606" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22532,16 +22547,16 @@
         <v>1564</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="E606" s="3" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="F606" s="3" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.35">
@@ -22572,16 +22587,16 @@
         <v>1567</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="E608" s="3" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="F608" s="3" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="609" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22592,16 +22607,16 @@
         <v>1568</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="D609" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="E609" s="3" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="F609" s="3" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="610" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22615,7 +22630,7 @@
         <v>1571</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="E610" s="3" t="s">
         <v>1571</v>
@@ -22632,16 +22647,16 @@
         <v>1572</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="E611" s="3" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="F611" s="3" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="612" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22652,16 +22667,16 @@
         <v>1573</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="E612" s="3" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="F612" s="3" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="613" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -22672,16 +22687,16 @@
         <v>1574</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="E613" s="3" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="F613" s="3" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.35">
@@ -23135,7 +23150,7 @@
         <v>1640</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="E636" s="3" t="s">
         <v>1640</v>
@@ -24612,7 +24627,7 @@
         <v>1855</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="D710" s="1" t="s">
         <v>1857</v>
@@ -24632,7 +24647,7 @@
         <v>1858</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="D711" s="1" t="s">
         <v>1860</v>
@@ -24812,7 +24827,7 @@
         <v>1880</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="D720" s="1" t="s">
         <v>870</v>
@@ -24832,7 +24847,7 @@
         <v>1881</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="D721" s="1" t="s">
         <v>1883</v>
@@ -25952,7 +25967,7 @@
         <v>2043</v>
       </c>
       <c r="C777" s="24" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="D777" s="1" t="s">
         <v>2045</v>
@@ -26092,16 +26107,16 @@
         <v>2064</v>
       </c>
       <c r="C784" s="24" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="D784" s="31" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="E784" s="24" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="F784" s="24" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="785" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
@@ -26132,16 +26147,16 @@
         <v>2068</v>
       </c>
       <c r="C786" s="34" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="D786" s="31" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="E786" s="24" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="F786" s="24" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="787" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
@@ -27405,7 +27420,7 @@
         <v>847</v>
       </c>
       <c r="B851" s="31" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="C851" s="24" t="s">
         <v>2257</v>
@@ -27420,7 +27435,7 @@
         <v>2257</v>
       </c>
       <c r="H851" s="31" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="852" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -27443,7 +27458,7 @@
         <v>2260</v>
       </c>
       <c r="H852" s="31" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="853" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -27466,7 +27481,7 @@
         <v>2263</v>
       </c>
       <c r="H853" s="31" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="854" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -27489,7 +27504,7 @@
         <v>2266</v>
       </c>
       <c r="H854" s="31" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="855" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -27512,7 +27527,7 @@
         <v>2269</v>
       </c>
       <c r="H855" s="31" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="856" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -27535,7 +27550,7 @@
         <v>2272</v>
       </c>
       <c r="H856" s="31" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="857" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -27558,7 +27573,7 @@
         <v>2275</v>
       </c>
       <c r="H857" s="31" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="858" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -27581,7 +27596,7 @@
         <v>2278</v>
       </c>
       <c r="H858" s="31" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="859" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -27604,7 +27619,7 @@
         <v>2281</v>
       </c>
       <c r="H859" s="31" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="860" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -27627,7 +27642,7 @@
         <v>2284</v>
       </c>
       <c r="H860" s="31" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="861" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -27650,7 +27665,7 @@
         <v>2287</v>
       </c>
       <c r="H861" s="31" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="862" spans="1:8" x14ac:dyDescent="0.35">
@@ -29892,7 +29907,7 @@
         <v>2613</v>
       </c>
       <c r="D974" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="E974" s="1" t="s">
         <v>2613</v>
@@ -30029,7 +30044,7 @@
         <v>2632</v>
       </c>
       <c r="C981" s="27" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="D981" s="27" t="s">
         <v>2634</v>
@@ -30049,7 +30064,7 @@
         <v>2635</v>
       </c>
       <c r="C982" s="27" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="D982" s="27" t="s">
         <v>2637</v>
@@ -30069,7 +30084,7 @@
         <v>2638</v>
       </c>
       <c r="C983" s="28" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="D983" s="28" t="s">
         <v>2640</v>
@@ -30129,7 +30144,7 @@
         <v>2647</v>
       </c>
       <c r="C986" s="27" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="D986" s="27" t="s">
         <v>2649</v>
@@ -30149,7 +30164,7 @@
         <v>2650</v>
       </c>
       <c r="C987" s="27" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="D987" s="27" t="s">
         <v>2652</v>
@@ -30229,7 +30244,7 @@
         <v>2662</v>
       </c>
       <c r="C991" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="D991" s="1" t="s">
         <v>2664</v>
@@ -30249,10 +30264,10 @@
         <v>2665</v>
       </c>
       <c r="C992" s="23" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="D992" s="23" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="E992" s="23" t="s">
         <v>2666</v>
@@ -30269,7 +30284,7 @@
         <v>2667</v>
       </c>
       <c r="C993" s="1" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="D993" s="1" t="s">
         <v>2669</v>
@@ -30289,16 +30304,16 @@
         <v>2670</v>
       </c>
       <c r="C994" s="29" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="D994" s="23" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="E994" s="29" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="F994" s="29" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.35">
@@ -30909,16 +30924,16 @@
         <v>2761</v>
       </c>
       <c r="C1025" s="31" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="D1025" s="1" t="s">
         <v>2762</v>
       </c>
       <c r="E1025" s="31" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="F1025" s="31" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.35">
@@ -30929,16 +30944,16 @@
         <v>2763</v>
       </c>
       <c r="C1026" s="31" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="D1026" s="1" t="s">
         <v>2764</v>
       </c>
       <c r="E1026" s="31" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="F1026" s="31" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1027" spans="1:6" x14ac:dyDescent="0.35">
@@ -30949,16 +30964,16 @@
         <v>2765</v>
       </c>
       <c r="C1027" s="31" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="D1027" s="1" t="s">
         <v>2766</v>
       </c>
       <c r="E1027" s="31" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="F1027" s="31" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1028" spans="1:6" x14ac:dyDescent="0.35">
@@ -31189,16 +31204,16 @@
         <v>2800</v>
       </c>
       <c r="C1040" s="31" t="s">
-        <v>2837</v>
+        <v>2969</v>
       </c>
       <c r="D1040" s="30" t="s">
-        <v>2802</v>
+        <v>2971</v>
       </c>
       <c r="E1040" s="31" t="s">
-        <v>2801</v>
+        <v>2969</v>
       </c>
       <c r="F1040" s="31" t="s">
-        <v>2801</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.35">
@@ -31206,19 +31221,19 @@
         <v>1036</v>
       </c>
       <c r="B1041" s="30" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="C1041" s="31" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="D1041" s="30" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="E1041" s="31" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="F1041" s="31" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.35">
@@ -31226,19 +31241,19 @@
         <v>1037</v>
       </c>
       <c r="B1042" s="30" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C1042" s="30" t="s">
+        <v>2970</v>
+      </c>
+      <c r="D1042" s="30" t="s">
         <v>2805</v>
       </c>
-      <c r="C1042" s="30" t="s">
-        <v>2806</v>
-      </c>
-      <c r="D1042" s="30" t="s">
-        <v>2807</v>
-      </c>
       <c r="E1042" s="30" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
       <c r="F1042" s="30" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1043" spans="1:6" x14ac:dyDescent="0.35">
@@ -31246,19 +31261,19 @@
         <v>1038</v>
       </c>
       <c r="B1043" s="30" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C1043" s="30" t="s">
+        <v>2807</v>
+      </c>
+      <c r="D1043" s="30" t="s">
         <v>2808</v>
       </c>
-      <c r="C1043" s="30" t="s">
-        <v>2809</v>
-      </c>
-      <c r="D1043" s="30" t="s">
-        <v>2810</v>
-      </c>
       <c r="E1043" s="30" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="F1043" s="30" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.35">
@@ -31266,19 +31281,19 @@
         <v>1039</v>
       </c>
       <c r="B1044" s="30" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C1044" s="32" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D1044" s="30" t="s">
         <v>2811</v>
       </c>
-      <c r="C1044" s="32" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D1044" s="30" t="s">
-        <v>2813</v>
-      </c>
       <c r="E1044" s="32" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="F1044" s="32" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.35">
@@ -31286,13 +31301,13 @@
         <v>1040</v>
       </c>
       <c r="B1045" s="30" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="C1045" s="30" t="s">
         <v>761</v>
       </c>
       <c r="D1045" s="30" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="E1045" s="30" t="s">
         <v>761</v>
@@ -31306,19 +31321,39 @@
         <v>1041</v>
       </c>
       <c r="B1047" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C1047" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D1047" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="C1047" s="1" t="s">
-        <v>2817</v>
-      </c>
-      <c r="D1047" s="1" t="s">
-        <v>2818</v>
-      </c>
       <c r="E1047" s="1" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="F1047" s="1" t="s">
-        <v>2817</v>
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1048" s="1">
+        <v>1042</v>
+      </c>
+      <c r="B1048" s="31" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C1048" s="31" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D1048" s="31" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E1048" s="31" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1048" s="31" t="s">
+        <v>2973</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5263" uniqueCount="2968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5298" uniqueCount="2989">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -8971,6 +8971,69 @@
   </si>
   <si>
     <t xml:space="preserve">点击附魔以添加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game_Setting001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设置！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game_Setting002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">声音</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game_Setting003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">静音</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game_Setting004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lens Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">镜头设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game_Setting005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensitivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">镜头灵敏度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game_Setting006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">低</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game_Setting007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高</t>
   </si>
 </sst>
 </file>
@@ -9164,151 +9227,151 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9561,10 +9624,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1051"/>
+  <dimension ref="A1:T1058"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1035" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1054" activeCellId="0" sqref="F1054"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1040" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1062" activeCellId="0" sqref="B1062"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31311,6 +31374,146 @@
       </c>
       <c r="F1051" s="1" t="s">
         <v>2966</v>
+      </c>
+    </row>
+    <row r="1052" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1052" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C1052" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D1052" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="E1052" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="F1052" s="1" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="1053" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1053" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C1053" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D1053" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E1053" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="F1053" s="1" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="1054" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1054" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C1054" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D1054" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="E1054" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="F1054" s="1" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="1055" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1055" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C1055" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D1055" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="E1055" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F1055" s="1" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="1056" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1056" s="1" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C1056" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D1056" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="E1056" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="F1056" s="1" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="1057" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1057" s="1" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C1057" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D1057" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="E1057" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F1057" s="1" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="1058" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1058" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C1058" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D1058" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="E1058" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F1058" s="1" t="s">
+        <v>2987</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5312" uniqueCount="2994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5314" uniqueCount="2996">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -9051,6 +9051,12 @@
   <si>
     <t xml:space="preserve">槽位2
 完成一次附魔后解锁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchants_new006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重新附魔</t>
   </si>
 </sst>
 </file>
@@ -9263,171 +9269,171 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9680,10 +9686,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1062"/>
+  <dimension ref="A1:T1063"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1050" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1066" activeCellId="0" sqref="D1066"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1044" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1068" activeCellId="0" sqref="D1068"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31632,6 +31638,17 @@
       </c>
       <c r="D1062" s="30" t="s">
         <v>2993</v>
+      </c>
+    </row>
+    <row r="1063" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1063" s="1" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="D1063" s="1" t="s">
+        <v>2995</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5314" uniqueCount="2996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5314" uniqueCount="2997">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -7892,10 +7892,32 @@
     <t xml:space="preserve">Plaza_Text_12</t>
   </si>
   <si>
-    <t xml:space="preserve">{0} coins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0}币</t>
+    <t xml:space="preserve">{0} rewards!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}币!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">rewards!</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Plaza_Text_13</t>
@@ -9066,7 +9088,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -9157,6 +9179,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
     </font>
@@ -9409,7 +9438,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9433,7 +9462,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9688,8 +9717,8 @@
   </sheetPr>
   <dimension ref="A1:T1063"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1044" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1068" activeCellId="0" sqref="D1068"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A926" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H937" activeCellId="0" sqref="H937"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29152,10 +29181,10 @@
         <v>2614</v>
       </c>
       <c r="E935" s="31" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="F935" s="31" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29163,19 +29192,19 @@
         <v>932</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="C936" s="31" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="D936" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E936" s="31" t="s">
         <v>2617</v>
       </c>
-      <c r="E936" s="31" t="s">
-        <v>2616</v>
-      </c>
       <c r="F936" s="31" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29183,13 +29212,13 @@
         <v>933</v>
       </c>
       <c r="B937" s="1" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="C937" s="31" t="s">
         <v>735</v>
       </c>
       <c r="D937" s="1" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="E937" s="31" t="s">
         <v>735</v>
@@ -29203,19 +29232,19 @@
         <v>934</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="D938" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="E938" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="E938" s="1" t="s">
-        <v>2621</v>
-      </c>
       <c r="F938" s="1" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29223,19 +29252,19 @@
         <v>935</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="D939" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="E939" s="1" t="s">
         <v>2625</v>
       </c>
-      <c r="E939" s="1" t="s">
-        <v>2624</v>
-      </c>
       <c r="F939" s="1" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29243,19 +29272,19 @@
         <v>936</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="D940" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E940" s="1" t="s">
         <v>2628</v>
       </c>
-      <c r="E940" s="1" t="s">
-        <v>2627</v>
-      </c>
       <c r="F940" s="1" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29263,19 +29292,19 @@
         <v>937</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="D941" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E941" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="E941" s="1" t="s">
-        <v>2630</v>
-      </c>
       <c r="F941" s="1" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29283,19 +29312,19 @@
         <v>938</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="D942" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="E942" s="1" t="s">
         <v>2634</v>
       </c>
-      <c r="E942" s="1" t="s">
-        <v>2633</v>
-      </c>
       <c r="F942" s="1" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29303,19 +29332,19 @@
         <v>939</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="D943" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E943" s="1" t="s">
         <v>2637</v>
       </c>
-      <c r="E943" s="1" t="s">
-        <v>2636</v>
-      </c>
       <c r="F943" s="1" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29323,19 +29352,19 @@
         <v>940</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="D944" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="E944" s="1" t="s">
         <v>2640</v>
       </c>
-      <c r="E944" s="1" t="s">
-        <v>2639</v>
-      </c>
       <c r="F944" s="1" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29343,19 +29372,19 @@
         <v>941</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="D945" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="E945" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="E945" s="1" t="s">
-        <v>2642</v>
-      </c>
       <c r="F945" s="1" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29363,19 +29392,19 @@
         <v>942</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="D946" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="E946" s="1" t="s">
         <v>2646</v>
       </c>
-      <c r="E946" s="1" t="s">
-        <v>2645</v>
-      </c>
       <c r="F946" s="1" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29383,19 +29412,19 @@
         <v>943</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="D947" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="E947" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="E947" s="1" t="s">
-        <v>2648</v>
-      </c>
       <c r="F947" s="1" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29403,19 +29432,19 @@
         <v>944</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="D948" s="1" t="s">
         <v>2582</v>
       </c>
       <c r="E948" s="1" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="F948" s="1" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29423,19 +29452,19 @@
         <v>945</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="D949" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="E949" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="E949" s="1" t="s">
-        <v>2653</v>
-      </c>
       <c r="F949" s="1" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29443,19 +29472,19 @@
         <v>946</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="C950" s="1" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="D950" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E950" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="E950" s="1" t="s">
-        <v>2656</v>
-      </c>
       <c r="F950" s="1" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29463,19 +29492,19 @@
         <v>947</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="C951" s="1" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="D951" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E951" s="1" t="s">
         <v>2660</v>
       </c>
-      <c r="E951" s="1" t="s">
-        <v>2659</v>
-      </c>
       <c r="F951" s="1" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29483,19 +29512,19 @@
         <v>948</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="C952" s="1" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="D952" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="E952" s="1" t="s">
         <v>2663</v>
       </c>
-      <c r="E952" s="1" t="s">
-        <v>2662</v>
-      </c>
       <c r="F952" s="1" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29503,19 +29532,19 @@
         <v>949</v>
       </c>
       <c r="B953" s="1" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="C953" s="1" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="D953" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="E953" s="1" t="s">
         <v>2666</v>
       </c>
-      <c r="E953" s="1" t="s">
-        <v>2665</v>
-      </c>
       <c r="F953" s="1" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29523,19 +29552,19 @@
         <v>950</v>
       </c>
       <c r="B954" s="1" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="C954" s="1" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="D954" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="E954" s="1" t="s">
         <v>2669</v>
       </c>
-      <c r="E954" s="1" t="s">
-        <v>2668</v>
-      </c>
       <c r="F954" s="1" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29543,19 +29572,19 @@
         <v>951</v>
       </c>
       <c r="B955" s="1" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="C955" s="1" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="D955" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E955" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="E955" s="1" t="s">
-        <v>2671</v>
-      </c>
       <c r="F955" s="1" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29563,19 +29592,19 @@
         <v>952</v>
       </c>
       <c r="B956" s="1" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="C956" s="1" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="D956" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="E956" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="E956" s="1" t="s">
-        <v>2674</v>
-      </c>
       <c r="F956" s="1" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29583,19 +29612,19 @@
         <v>953</v>
       </c>
       <c r="B957" s="1" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="C957" s="1" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="D957" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="E957" s="1" t="s">
         <v>2678</v>
       </c>
-      <c r="E957" s="1" t="s">
-        <v>2677</v>
-      </c>
       <c r="F957" s="1" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29603,19 +29632,19 @@
         <v>954</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="C958" s="1" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="D958" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E958" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="E958" s="1" t="s">
-        <v>2680</v>
-      </c>
       <c r="F958" s="1" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29623,19 +29652,19 @@
         <v>955</v>
       </c>
       <c r="B959" s="1" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="C959" s="1" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="D959" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="E959" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="E959" s="1" t="s">
-        <v>2683</v>
-      </c>
       <c r="F959" s="1" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29643,19 +29672,19 @@
         <v>956</v>
       </c>
       <c r="B960" s="1" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="C960" s="1" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="D960" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E960" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="E960" s="1" t="s">
-        <v>2686</v>
-      </c>
       <c r="F960" s="1" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29663,19 +29692,19 @@
         <v>957</v>
       </c>
       <c r="B961" s="1" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="C961" s="1" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="D961" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="E961" s="1" t="s">
         <v>2690</v>
       </c>
-      <c r="E961" s="1" t="s">
-        <v>2689</v>
-      </c>
       <c r="F961" s="1" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29683,19 +29712,19 @@
         <v>958</v>
       </c>
       <c r="B962" s="1" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="C962" s="1" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="D962" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E962" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="E962" s="1" t="s">
-        <v>2692</v>
-      </c>
       <c r="F962" s="1" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29703,19 +29732,19 @@
         <v>959</v>
       </c>
       <c r="B963" s="1" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="C963" s="1" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="D963" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="E963" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="E963" s="1" t="s">
-        <v>2695</v>
-      </c>
       <c r="F963" s="1" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29723,19 +29752,19 @@
         <v>960</v>
       </c>
       <c r="B964" s="1" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="D964" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="E964" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="E964" s="1" t="s">
-        <v>2698</v>
-      </c>
       <c r="F964" s="1" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29743,19 +29772,19 @@
         <v>961</v>
       </c>
       <c r="B965" s="1" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="C965" s="1" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="D965" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="E965" s="1" t="s">
         <v>2702</v>
       </c>
-      <c r="E965" s="1" t="s">
-        <v>2701</v>
-      </c>
       <c r="F965" s="1" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29763,19 +29792,19 @@
         <v>962</v>
       </c>
       <c r="B966" s="1" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="D966" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E966" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="E966" s="1" t="s">
-        <v>2704</v>
-      </c>
       <c r="F966" s="1" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29783,19 +29812,19 @@
         <v>963</v>
       </c>
       <c r="B967" s="1" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="C967" s="1" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="D967" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E967" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="E967" s="1" t="s">
-        <v>2707</v>
-      </c>
       <c r="F967" s="1" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29803,19 +29832,19 @@
         <v>964</v>
       </c>
       <c r="B968" s="1" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="C968" s="36" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="D968" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E968" s="36" t="s">
         <v>2711</v>
       </c>
-      <c r="E968" s="36" t="s">
-        <v>2710</v>
-      </c>
       <c r="F968" s="36" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29823,19 +29852,19 @@
         <v>965</v>
       </c>
       <c r="B969" s="1" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="C969" s="1" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="D969" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E969" s="1" t="s">
         <v>2714</v>
       </c>
-      <c r="E969" s="1" t="s">
-        <v>2713</v>
-      </c>
       <c r="F969" s="1" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29843,19 +29872,19 @@
         <v>966</v>
       </c>
       <c r="B970" s="1" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="C970" s="36" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="D970" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="E970" s="36" t="s">
         <v>2717</v>
       </c>
-      <c r="E970" s="36" t="s">
-        <v>2716</v>
-      </c>
       <c r="F970" s="36" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29863,19 +29892,19 @@
         <v>967</v>
       </c>
       <c r="B971" s="1" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="C971" s="1" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="D971" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="E971" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="E971" s="1" t="s">
-        <v>2719</v>
-      </c>
       <c r="F971" s="1" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29883,19 +29912,19 @@
         <v>968</v>
       </c>
       <c r="B972" s="1" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="C972" s="36" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="D972" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E972" s="36" t="s">
         <v>2723</v>
       </c>
-      <c r="E972" s="36" t="s">
-        <v>2722</v>
-      </c>
       <c r="F972" s="36" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29903,13 +29932,13 @@
         <v>969</v>
       </c>
       <c r="B973" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C973" s="1" t="s">
         <v>1939</v>
       </c>
       <c r="D973" s="1" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="E973" s="1" t="s">
         <v>1939</v>
@@ -29923,19 +29952,19 @@
         <v>970</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="C974" s="1" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="D974" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="E974" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="E974" s="1" t="s">
-        <v>2727</v>
-      </c>
       <c r="F974" s="1" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29943,19 +29972,19 @@
         <v>971</v>
       </c>
       <c r="B975" s="1" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="C975" s="1" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="D975" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E975" s="1" t="s">
         <v>2731</v>
       </c>
-      <c r="E975" s="1" t="s">
-        <v>2730</v>
-      </c>
       <c r="F975" s="1" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29963,19 +29992,19 @@
         <v>972</v>
       </c>
       <c r="B976" s="1" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="C976" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="D976" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E976" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="E976" s="1" t="s">
-        <v>2733</v>
-      </c>
       <c r="F976" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29983,19 +30012,19 @@
         <v>973</v>
       </c>
       <c r="B977" s="1" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="C977" s="1" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="D977" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E977" s="1" t="s">
         <v>2737</v>
       </c>
-      <c r="E977" s="1" t="s">
-        <v>2736</v>
-      </c>
       <c r="F977" s="1" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30003,19 +30032,19 @@
         <v>974</v>
       </c>
       <c r="B978" s="1" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="C978" s="1" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="D978" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E978" s="1" t="s">
         <v>2740</v>
       </c>
-      <c r="E978" s="1" t="s">
-        <v>2739</v>
-      </c>
       <c r="F978" s="1" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30023,19 +30052,19 @@
         <v>975</v>
       </c>
       <c r="B979" s="1" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="D979" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E979" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="E979" s="1" t="s">
-        <v>2742</v>
-      </c>
       <c r="F979" s="1" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30043,19 +30072,19 @@
         <v>976</v>
       </c>
       <c r="B980" s="1" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="C980" s="1" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="D980" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="E980" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="E980" s="1" t="s">
-        <v>2745</v>
-      </c>
       <c r="F980" s="1" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30063,19 +30092,19 @@
         <v>977</v>
       </c>
       <c r="B981" s="1" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="C981" s="37" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="D981" s="37" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="E981" s="37" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="F981" s="37" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30083,19 +30112,19 @@
         <v>978</v>
       </c>
       <c r="B982" s="1" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="C982" s="37" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="D982" s="37" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="E982" s="37" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="F982" s="37" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30103,19 +30132,19 @@
         <v>979</v>
       </c>
       <c r="B983" s="1" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="C983" s="38" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="D983" s="38" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="E983" s="38" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="F983" s="38" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30123,19 +30152,19 @@
         <v>980</v>
       </c>
       <c r="B984" s="1" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="C984" s="38" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="D984" s="38" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E984" s="38" t="s">
         <v>2761</v>
       </c>
-      <c r="E984" s="38" t="s">
-        <v>2760</v>
-      </c>
       <c r="F984" s="38" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30143,19 +30172,19 @@
         <v>981</v>
       </c>
       <c r="B985" s="1" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="C985" s="38" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="D985" s="38" t="s">
+        <v>2765</v>
+      </c>
+      <c r="E985" s="38" t="s">
         <v>2764</v>
       </c>
-      <c r="E985" s="38" t="s">
-        <v>2763</v>
-      </c>
       <c r="F985" s="38" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30163,19 +30192,19 @@
         <v>982</v>
       </c>
       <c r="B986" s="1" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="C986" s="37" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="D986" s="37" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="E986" s="37" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="F986" s="37" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30183,19 +30212,19 @@
         <v>983</v>
       </c>
       <c r="B987" s="1" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="C987" s="37" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="D987" s="37" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="E987" s="37" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="F987" s="37" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30203,19 +30232,19 @@
         <v>984</v>
       </c>
       <c r="B988" s="1" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="C988" s="38" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="D988" s="38" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E988" s="38" t="s">
         <v>2775</v>
       </c>
-      <c r="E988" s="38" t="s">
-        <v>2774</v>
-      </c>
       <c r="F988" s="38" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30223,19 +30252,19 @@
         <v>985</v>
       </c>
       <c r="B989" s="1" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="C989" s="38" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="D989" s="38" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E989" s="38" t="s">
         <v>2778</v>
       </c>
-      <c r="E989" s="38" t="s">
-        <v>2777</v>
-      </c>
       <c r="F989" s="38" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30243,19 +30272,19 @@
         <v>986</v>
       </c>
       <c r="B990" s="1" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="C990" s="38" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="D990" s="38" t="s">
+        <v>2782</v>
+      </c>
+      <c r="E990" s="38" t="s">
         <v>2781</v>
       </c>
-      <c r="E990" s="38" t="s">
-        <v>2780</v>
-      </c>
       <c r="F990" s="38" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30263,19 +30292,19 @@
         <v>987</v>
       </c>
       <c r="B991" s="1" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="C991" s="1" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="D991" s="1" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="E991" s="1" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="F991" s="1" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30283,19 +30312,19 @@
         <v>988</v>
       </c>
       <c r="B992" s="1" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="C992" s="30" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="D992" s="30" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="E992" s="30" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="F992" s="30" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30303,19 +30332,19 @@
         <v>989</v>
       </c>
       <c r="B993" s="1" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="C993" s="1" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="D993" s="1" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="E993" s="1" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="F993" s="1" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30323,19 +30352,19 @@
         <v>990</v>
       </c>
       <c r="B994" s="1" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="C994" s="39" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="D994" s="30" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E994" s="39" t="s">
         <v>2796</v>
       </c>
-      <c r="E994" s="39" t="s">
-        <v>2795</v>
-      </c>
       <c r="F994" s="39" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30343,19 +30372,19 @@
         <v>991</v>
       </c>
       <c r="B995" s="1" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="C995" s="1" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="D995" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="E995" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="E995" s="1" t="s">
-        <v>2798</v>
-      </c>
       <c r="F995" s="1" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30363,19 +30392,19 @@
         <v>992</v>
       </c>
       <c r="B996" s="1" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="D996" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="E996" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="E996" s="1" t="s">
-        <v>2801</v>
-      </c>
       <c r="F996" s="1" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30383,19 +30412,19 @@
         <v>993</v>
       </c>
       <c r="B997" s="1" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="D997" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="E997" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="E997" s="1" t="s">
-        <v>2804</v>
-      </c>
       <c r="F997" s="1" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30403,19 +30432,19 @@
         <v>994</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="C998" s="1" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="D998" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="E998" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="E998" s="1" t="s">
-        <v>2807</v>
-      </c>
       <c r="F998" s="1" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30423,19 +30452,19 @@
         <v>995</v>
       </c>
       <c r="B999" s="1" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="D999" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="E999" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="E999" s="1" t="s">
-        <v>2810</v>
-      </c>
       <c r="F999" s="1" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30443,19 +30472,19 @@
         <v>996</v>
       </c>
       <c r="B1000" s="1" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="C1000" s="1" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="D1000" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="E1000" s="1" t="s">
         <v>2814</v>
       </c>
-      <c r="E1000" s="1" t="s">
-        <v>2813</v>
-      </c>
       <c r="F1000" s="1" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30463,19 +30492,19 @@
         <v>997</v>
       </c>
       <c r="B1001" s="1" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="C1001" s="1" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="D1001" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E1001" s="1" t="s">
         <v>2817</v>
       </c>
-      <c r="E1001" s="1" t="s">
-        <v>2816</v>
-      </c>
       <c r="F1001" s="1" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30483,19 +30512,19 @@
         <v>998</v>
       </c>
       <c r="B1002" s="1" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="D1002" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E1002" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="E1002" s="1" t="s">
-        <v>2819</v>
-      </c>
       <c r="F1002" s="1" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30503,19 +30532,19 @@
         <v>999</v>
       </c>
       <c r="B1003" s="1" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="C1003" s="1" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="D1003" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E1003" s="1" t="s">
         <v>2823</v>
       </c>
-      <c r="E1003" s="1" t="s">
-        <v>2822</v>
-      </c>
       <c r="F1003" s="1" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30523,19 +30552,19 @@
         <v>1000</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="C1004" s="1" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="D1004" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E1004" s="1" t="s">
         <v>2826</v>
       </c>
-      <c r="E1004" s="1" t="s">
-        <v>2825</v>
-      </c>
       <c r="F1004" s="1" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30543,19 +30572,19 @@
         <v>1001</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="C1005" s="1" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="D1005" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="E1005" s="1" t="s">
         <v>2829</v>
       </c>
-      <c r="E1005" s="1" t="s">
-        <v>2828</v>
-      </c>
       <c r="F1005" s="1" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30563,19 +30592,19 @@
         <v>1002</v>
       </c>
       <c r="B1006" s="1" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="C1006" s="1" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="D1006" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E1006" s="1" t="s">
         <v>2832</v>
       </c>
-      <c r="E1006" s="1" t="s">
-        <v>2831</v>
-      </c>
       <c r="F1006" s="1" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30583,19 +30612,19 @@
         <v>1003</v>
       </c>
       <c r="B1007" s="1" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="C1007" s="1" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="D1007" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="E1007" s="1" t="s">
         <v>2835</v>
       </c>
-      <c r="E1007" s="1" t="s">
-        <v>2834</v>
-      </c>
       <c r="F1007" s="1" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30603,19 +30632,19 @@
         <v>1004</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="C1008" s="1" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="D1008" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="E1008" s="1" t="s">
         <v>2838</v>
       </c>
-      <c r="E1008" s="1" t="s">
-        <v>2837</v>
-      </c>
       <c r="F1008" s="1" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30623,19 +30652,19 @@
         <v>1005</v>
       </c>
       <c r="B1009" s="1" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="C1009" s="1" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="D1009" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="E1009" s="1" t="s">
         <v>2841</v>
       </c>
-      <c r="E1009" s="1" t="s">
-        <v>2840</v>
-      </c>
       <c r="F1009" s="1" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30643,19 +30672,19 @@
         <v>1006</v>
       </c>
       <c r="B1010" s="1" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="C1010" s="1" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="D1010" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E1010" s="1" t="s">
         <v>2844</v>
       </c>
-      <c r="E1010" s="1" t="s">
-        <v>2843</v>
-      </c>
       <c r="F1010" s="1" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30663,19 +30692,19 @@
         <v>1007</v>
       </c>
       <c r="B1011" s="1" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="C1011" s="1" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="D1011" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="E1011" s="1" t="s">
         <v>2847</v>
       </c>
-      <c r="E1011" s="1" t="s">
-        <v>2846</v>
-      </c>
       <c r="F1011" s="1" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30683,19 +30712,19 @@
         <v>1008</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="C1012" s="1" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="D1012" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E1012" s="1" t="s">
         <v>2850</v>
       </c>
-      <c r="E1012" s="1" t="s">
-        <v>2849</v>
-      </c>
       <c r="F1012" s="1" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30703,19 +30732,19 @@
         <v>1009</v>
       </c>
       <c r="B1013" s="1" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="C1013" s="1" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="D1013" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E1013" s="1" t="s">
         <v>2853</v>
       </c>
-      <c r="E1013" s="1" t="s">
-        <v>2852</v>
-      </c>
       <c r="F1013" s="1" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30723,19 +30752,19 @@
         <v>1010</v>
       </c>
       <c r="B1014" s="1" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="C1014" s="1" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="D1014" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="E1014" s="1" t="s">
         <v>2856</v>
       </c>
-      <c r="E1014" s="1" t="s">
-        <v>2855</v>
-      </c>
       <c r="F1014" s="1" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30743,19 +30772,19 @@
         <v>1011</v>
       </c>
       <c r="B1015" s="1" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="C1015" s="1" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="D1015" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="E1015" s="1" t="s">
         <v>2859</v>
       </c>
-      <c r="E1015" s="1" t="s">
-        <v>2858</v>
-      </c>
       <c r="F1015" s="1" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30763,19 +30792,19 @@
         <v>1012</v>
       </c>
       <c r="B1016" s="1" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="C1016" s="1" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="D1016" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="E1016" s="1" t="s">
         <v>2862</v>
       </c>
-      <c r="E1016" s="1" t="s">
-        <v>2861</v>
-      </c>
       <c r="F1016" s="1" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30783,19 +30812,19 @@
         <v>1013</v>
       </c>
       <c r="B1017" s="1" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="C1017" s="1" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="D1017" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E1017" s="1" t="s">
         <v>2865</v>
       </c>
-      <c r="E1017" s="1" t="s">
-        <v>2864</v>
-      </c>
       <c r="F1017" s="1" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30803,19 +30832,19 @@
         <v>1014</v>
       </c>
       <c r="B1018" s="1" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="C1018" s="1" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="D1018" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="E1018" s="1" t="s">
         <v>2868</v>
       </c>
-      <c r="E1018" s="1" t="s">
-        <v>2867</v>
-      </c>
       <c r="F1018" s="1" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30823,19 +30852,19 @@
         <v>1015</v>
       </c>
       <c r="B1019" s="1" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="C1019" s="1" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="D1019" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1019" s="1" t="s">
         <v>2871</v>
       </c>
-      <c r="E1019" s="1" t="s">
-        <v>2870</v>
-      </c>
       <c r="F1019" s="1" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30843,19 +30872,19 @@
         <v>1016</v>
       </c>
       <c r="B1020" s="1" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="C1020" s="1" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="D1020" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="E1020" s="1" t="s">
         <v>2874</v>
       </c>
-      <c r="E1020" s="1" t="s">
-        <v>2873</v>
-      </c>
       <c r="F1020" s="1" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30863,19 +30892,19 @@
         <v>1017</v>
       </c>
       <c r="B1021" s="1" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="C1021" s="1" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="D1021" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E1021" s="1" t="s">
         <v>2877</v>
       </c>
-      <c r="E1021" s="1" t="s">
-        <v>2876</v>
-      </c>
       <c r="F1021" s="1" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30883,19 +30912,19 @@
         <v>1018</v>
       </c>
       <c r="B1022" s="1" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="C1022" s="1" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="D1022" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="E1022" s="1" t="s">
         <v>2880</v>
       </c>
-      <c r="E1022" s="1" t="s">
-        <v>2879</v>
-      </c>
       <c r="F1022" s="1" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30903,19 +30932,19 @@
         <v>1019</v>
       </c>
       <c r="B1023" s="1" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="C1023" s="1" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="D1023" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="E1023" s="1" t="s">
         <v>2883</v>
       </c>
-      <c r="E1023" s="1" t="s">
-        <v>2882</v>
-      </c>
       <c r="F1023" s="1" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30923,19 +30952,19 @@
         <v>1020</v>
       </c>
       <c r="B1024" s="1" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="C1024" s="1" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="D1024" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="E1024" s="1" t="s">
         <v>2886</v>
       </c>
-      <c r="E1024" s="1" t="s">
-        <v>2885</v>
-      </c>
       <c r="F1024" s="1" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30943,19 +30972,19 @@
         <v>1021</v>
       </c>
       <c r="B1025" s="1" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="C1025" s="9" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="D1025" s="1" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="E1025" s="9" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="F1025" s="9" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30963,19 +30992,19 @@
         <v>1022</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="C1026" s="9" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="D1026" s="1" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="E1026" s="9" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="F1026" s="9" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30983,19 +31012,19 @@
         <v>1023</v>
       </c>
       <c r="B1027" s="1" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="C1027" s="9" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="D1027" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="E1027" s="9" t="s">
         <v>2897</v>
       </c>
-      <c r="E1027" s="9" t="s">
-        <v>2896</v>
-      </c>
       <c r="F1027" s="9" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31003,19 +31032,19 @@
         <v>1024</v>
       </c>
       <c r="B1028" s="1" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="C1028" s="1" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="D1028" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1028" s="1" t="s">
         <v>2900</v>
       </c>
-      <c r="E1028" s="1" t="s">
-        <v>2899</v>
-      </c>
       <c r="F1028" s="1" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31023,19 +31052,19 @@
         <v>1025</v>
       </c>
       <c r="B1029" s="1" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="C1029" s="1" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="D1029" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="E1029" s="1" t="s">
         <v>2903</v>
       </c>
-      <c r="E1029" s="1" t="s">
-        <v>2902</v>
-      </c>
       <c r="F1029" s="1" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31043,19 +31072,19 @@
         <v>1026</v>
       </c>
       <c r="B1030" s="1" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="C1030" s="1" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="D1030" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E1030" s="1" t="s">
         <v>2906</v>
       </c>
-      <c r="E1030" s="1" t="s">
-        <v>2905</v>
-      </c>
       <c r="F1030" s="1" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31063,19 +31092,19 @@
         <v>1027</v>
       </c>
       <c r="B1031" s="1" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="C1031" s="1" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="D1031" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E1031" s="1" t="s">
         <v>2909</v>
       </c>
-      <c r="E1031" s="1" t="s">
-        <v>2908</v>
-      </c>
       <c r="F1031" s="1" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31083,19 +31112,19 @@
         <v>1028</v>
       </c>
       <c r="B1032" s="1" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="C1032" s="1" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="D1032" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E1032" s="1" t="s">
         <v>2912</v>
       </c>
-      <c r="E1032" s="1" t="s">
-        <v>2911</v>
-      </c>
       <c r="F1032" s="1" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31103,19 +31132,19 @@
         <v>1029</v>
       </c>
       <c r="B1033" s="1" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="C1033" s="1" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="D1033" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E1033" s="1" t="s">
         <v>2915</v>
       </c>
-      <c r="E1033" s="1" t="s">
-        <v>2914</v>
-      </c>
       <c r="F1033" s="1" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31123,19 +31152,19 @@
         <v>1030</v>
       </c>
       <c r="B1034" s="1" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="C1034" s="1" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="D1034" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E1034" s="1" t="s">
         <v>2918</v>
       </c>
-      <c r="E1034" s="1" t="s">
-        <v>2917</v>
-      </c>
       <c r="F1034" s="1" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31143,19 +31172,19 @@
         <v>1031</v>
       </c>
       <c r="B1035" s="1" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="C1035" s="1" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="D1035" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E1035" s="1" t="s">
         <v>2921</v>
       </c>
-      <c r="E1035" s="1" t="s">
-        <v>2920</v>
-      </c>
       <c r="F1035" s="1" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31163,19 +31192,19 @@
         <v>1032</v>
       </c>
       <c r="B1036" s="1" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="C1036" s="1" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="D1036" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1036" s="1" t="s">
         <v>2924</v>
       </c>
-      <c r="E1036" s="1" t="s">
-        <v>2923</v>
-      </c>
       <c r="F1036" s="1" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31183,19 +31212,19 @@
         <v>1033</v>
       </c>
       <c r="B1037" s="1" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="C1037" s="1" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="D1037" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E1037" s="1" t="s">
         <v>2927</v>
       </c>
-      <c r="E1037" s="1" t="s">
-        <v>2926</v>
-      </c>
       <c r="F1037" s="1" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31203,19 +31232,19 @@
         <v>1034</v>
       </c>
       <c r="B1038" s="1" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="C1038" s="1" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="D1038" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="E1038" s="1" t="s">
         <v>2930</v>
       </c>
-      <c r="E1038" s="1" t="s">
-        <v>2929</v>
-      </c>
       <c r="F1038" s="1" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31223,19 +31252,19 @@
         <v>1035</v>
       </c>
       <c r="B1040" s="40" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="C1040" s="9" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="D1040" s="40" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E1040" s="9" t="s">
         <v>2933</v>
       </c>
-      <c r="E1040" s="9" t="s">
-        <v>2932</v>
-      </c>
       <c r="F1040" s="9" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31243,19 +31272,19 @@
         <v>1036</v>
       </c>
       <c r="B1041" s="40" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="C1041" s="9" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="D1041" s="40" t="s">
+        <v>2937</v>
+      </c>
+      <c r="E1041" s="9" t="s">
         <v>2936</v>
       </c>
-      <c r="E1041" s="9" t="s">
-        <v>2935</v>
-      </c>
       <c r="F1041" s="9" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31263,19 +31292,19 @@
         <v>1037</v>
       </c>
       <c r="B1042" s="40" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="C1042" s="40" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="D1042" s="40" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E1042" s="40" t="s">
         <v>2939</v>
       </c>
-      <c r="E1042" s="40" t="s">
-        <v>2938</v>
-      </c>
       <c r="F1042" s="40" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31283,19 +31312,19 @@
         <v>1038</v>
       </c>
       <c r="B1043" s="40" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="C1043" s="40" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="D1043" s="40" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E1043" s="40" t="s">
         <v>2942</v>
       </c>
-      <c r="E1043" s="40" t="s">
-        <v>2941</v>
-      </c>
       <c r="F1043" s="40" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31303,19 +31332,19 @@
         <v>1039</v>
       </c>
       <c r="B1044" s="40" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="C1044" s="41" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="D1044" s="40" t="s">
+        <v>2946</v>
+      </c>
+      <c r="E1044" s="41" t="s">
         <v>2945</v>
       </c>
-      <c r="E1044" s="41" t="s">
-        <v>2944</v>
-      </c>
       <c r="F1044" s="41" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31323,13 +31352,13 @@
         <v>1040</v>
       </c>
       <c r="B1045" s="40" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="C1045" s="40" t="s">
         <v>780</v>
       </c>
       <c r="D1045" s="40" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="E1045" s="40" t="s">
         <v>780</v>
@@ -31343,19 +31372,19 @@
         <v>1041</v>
       </c>
       <c r="B1047" s="1" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="C1047" s="1" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="D1047" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="E1047" s="1" t="s">
         <v>2950</v>
       </c>
-      <c r="E1047" s="1" t="s">
-        <v>2949</v>
-      </c>
       <c r="F1047" s="1" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31363,19 +31392,19 @@
         <v>1042</v>
       </c>
       <c r="B1048" s="9" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="C1048" s="9" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="D1048" s="9" t="s">
+        <v>2954</v>
+      </c>
+      <c r="E1048" s="9" t="s">
         <v>2953</v>
       </c>
-      <c r="E1048" s="9" t="s">
-        <v>2952</v>
-      </c>
       <c r="F1048" s="9" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31383,19 +31412,19 @@
         <v>1043</v>
       </c>
       <c r="B1049" s="1" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="C1049" s="1" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="D1049" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="E1049" s="1" t="s">
         <v>2956</v>
       </c>
-      <c r="E1049" s="1" t="s">
-        <v>2955</v>
-      </c>
       <c r="F1049" s="1" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31403,19 +31432,19 @@
         <v>1044</v>
       </c>
       <c r="B1050" s="1" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="C1050" s="1" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="D1050" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E1050" s="1" t="s">
         <v>2959</v>
       </c>
-      <c r="E1050" s="1" t="s">
-        <v>2958</v>
-      </c>
       <c r="F1050" s="1" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31423,19 +31452,19 @@
         <v>1045</v>
       </c>
       <c r="B1051" s="1" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="C1051" s="1" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="D1051" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1051" s="1" t="s">
         <v>2962</v>
       </c>
-      <c r="E1051" s="1" t="s">
-        <v>2961</v>
-      </c>
       <c r="F1051" s="1" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31443,19 +31472,19 @@
         <v>1046</v>
       </c>
       <c r="B1052" s="9" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="C1052" s="9" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="D1052" s="9" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E1052" s="9" t="s">
         <v>2965</v>
       </c>
-      <c r="E1052" s="9" t="s">
-        <v>2964</v>
-      </c>
       <c r="F1052" s="9" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31463,19 +31492,19 @@
         <v>1047</v>
       </c>
       <c r="B1053" s="9" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="C1053" s="1" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="D1053" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="E1053" s="1" t="s">
         <v>2968</v>
       </c>
-      <c r="E1053" s="1" t="s">
-        <v>2967</v>
-      </c>
       <c r="F1053" s="1" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31483,19 +31512,19 @@
         <v>1048</v>
       </c>
       <c r="B1054" s="9" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="C1054" s="1" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="D1054" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E1054" s="1" t="s">
         <v>2971</v>
       </c>
-      <c r="E1054" s="1" t="s">
-        <v>2970</v>
-      </c>
       <c r="F1054" s="1" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31503,19 +31532,19 @@
         <v>1049</v>
       </c>
       <c r="B1055" s="9" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="C1055" s="1" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="D1055" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="E1055" s="1" t="s">
         <v>2974</v>
       </c>
-      <c r="E1055" s="1" t="s">
-        <v>2973</v>
-      </c>
       <c r="F1055" s="1" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31523,19 +31552,19 @@
         <v>1050</v>
       </c>
       <c r="B1056" s="9" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="C1056" s="1" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="D1056" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="E1056" s="1" t="s">
         <v>2977</v>
       </c>
-      <c r="E1056" s="1" t="s">
-        <v>2976</v>
-      </c>
       <c r="F1056" s="1" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31543,19 +31572,19 @@
         <v>1051</v>
       </c>
       <c r="B1057" s="9" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="C1057" s="1" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="D1057" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="E1057" s="1" t="s">
         <v>2980</v>
       </c>
-      <c r="E1057" s="1" t="s">
-        <v>2979</v>
-      </c>
       <c r="F1057" s="1" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31563,19 +31592,19 @@
         <v>1052</v>
       </c>
       <c r="B1058" s="9" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="C1058" s="1" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="D1058" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="E1058" s="1" t="s">
         <v>2983</v>
       </c>
-      <c r="E1058" s="1" t="s">
-        <v>2982</v>
-      </c>
       <c r="F1058" s="1" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31583,19 +31612,19 @@
         <v>1053</v>
       </c>
       <c r="B1059" s="9" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="C1059" s="9" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D1059" s="9" t="s">
+        <v>2987</v>
+      </c>
+      <c r="E1059" s="9" t="s">
         <v>2986</v>
       </c>
-      <c r="E1059" s="9" t="s">
-        <v>2985</v>
-      </c>
       <c r="F1059" s="9" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31603,19 +31632,19 @@
         <v>1054</v>
       </c>
       <c r="B1060" s="1" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="C1060" s="42" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="D1060" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="E1060" s="42" t="s">
         <v>2989</v>
       </c>
-      <c r="E1060" s="42" t="s">
-        <v>2988</v>
-      </c>
       <c r="F1060" s="42" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31623,10 +31652,10 @@
         <v>1055</v>
       </c>
       <c r="B1061" s="1" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="D1061" s="30" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31634,10 +31663,10 @@
         <v>1056</v>
       </c>
       <c r="B1062" s="1" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="D1062" s="30" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31645,10 +31674,10 @@
         <v>1057</v>
       </c>
       <c r="B1063" s="1" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="D1063" s="1" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5328" uniqueCount="3003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5333" uniqueCount="3006">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -9080,6 +9080,17 @@
   </si>
   <si>
     <t xml:space="preserve">Boosted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchants_new008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slot 2
+Click on the right enchantment to add </t>
+  </si>
+  <si>
+    <t xml:space="preserve">槽位2
+点击右侧附魔添加</t>
   </si>
 </sst>
 </file>
@@ -9151,8 +9162,8 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="微软雅黑"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -9285,155 +9296,155 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9686,10 +9697,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1064"/>
+  <dimension ref="A1:T1065"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A564" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D582" activeCellId="0" sqref="D582"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1038" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1067" activeCellId="0" sqref="E1067"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31696,6 +31707,26 @@
       </c>
       <c r="F1064" s="1" t="s">
         <v>3002</v>
+      </c>
+    </row>
+    <row r="1065" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1065" s="1" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C1065" s="28" t="s">
+        <v>3004</v>
+      </c>
+      <c r="D1065" s="28" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E1065" s="28" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F1065" s="28" t="s">
+        <v>3004</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5333" uniqueCount="3006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5337" uniqueCount="3010">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -9091,6 +9091,19 @@
   <si>
     <t xml:space="preserve">槽位2
 点击右侧附魔添加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slot 2
+Click on the right enchantment to add No enchants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchants_new009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No enchants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尚未附魔</t>
   </si>
 </sst>
 </file>
@@ -9697,10 +9710,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1065"/>
+  <dimension ref="A1:T1066"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1038" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1067" activeCellId="0" sqref="E1067"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1049" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1069" activeCellId="0" sqref="D1069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31709,7 +31722,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="1065" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1065" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="1" t="n">
         <v>1059</v>
       </c>
@@ -31726,7 +31739,24 @@
         <v>3004</v>
       </c>
       <c r="F1065" s="28" t="s">
-        <v>3004</v>
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="1066" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1066" s="1" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C1066" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="D1066" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="E1066" s="1" t="s">
+        <v>3008</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5337" uniqueCount="3010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5357" uniqueCount="3020">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -9104,6 +9104,36 @@
   </si>
   <si>
     <t xml:space="preserve">尚未附魔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online_shop001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仙豆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online_shop002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test English Test English Test English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在游戏中使用可获得60%体力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online_shop003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">精灵球</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online_shop004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在奖励地图中捕获龙娘时使用</t>
   </si>
 </sst>
 </file>
@@ -9710,10 +9740,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1066"/>
+  <dimension ref="A1:T1070"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1049" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1069" activeCellId="0" sqref="D1069"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1055" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1079" activeCellId="0" sqref="F1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31757,6 +31787,86 @@
       </c>
       <c r="E1066" s="1" t="s">
         <v>3008</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1067" s="1" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C1067" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D1067" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="E1067" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="F1067" s="1" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1068" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1068" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C1068" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D1068" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="E1068" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="F1068" s="1" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="1069" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1069" s="1" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C1069" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D1069" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="E1069" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="F1069" s="1" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1070" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1070" s="1" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C1070" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D1070" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="E1070" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="F1070" s="1" t="s">
+        <v>3014</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5357" uniqueCount="3020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5377" uniqueCount="3032">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -9134,6 +9134,42 @@
   </si>
   <si>
     <t xml:space="preserve">在奖励地图中捕获龙娘时使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online_shop005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">购买</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online_shop006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总计：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online_shop007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remain：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">结余：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online_shop008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DragonVerse Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DragonVerse 商城</t>
   </si>
 </sst>
 </file>
@@ -9740,10 +9776,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1070"/>
+  <dimension ref="A1:T1074"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1055" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1079" activeCellId="0" sqref="F1079"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1056" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1074" activeCellId="0" sqref="B1074"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31867,6 +31903,86 @@
       </c>
       <c r="F1070" s="1" t="s">
         <v>3014</v>
+      </c>
+    </row>
+    <row r="1071" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1071" s="1" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C1071" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D1071" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="E1071" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F1071" s="1" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="1072" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1072" s="1" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C1072" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="D1072" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="E1072" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="F1072" s="1" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="1073" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1073" s="1" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C1073" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="D1073" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="E1073" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="F1073" s="1" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="1074" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1074" s="1" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C1074" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D1074" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="E1074" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="F1074" s="1" t="s">
+        <v>3030</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -9199,10 +9199,10 @@
     <t xml:space="preserve">Online_shop011</t>
   </si>
   <si>
-    <t xml:space="preserve">Consume a Senzu Potion to recover {180} stamina? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">确定消耗一瓶仙豆药水并回复{180}体力吗？</t>
+    <t xml:space="preserve">Consume a Senzu Potion to recover {0} stamina? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">确定消耗一瓶仙豆药水并回复{0}体力吗？</t>
   </si>
   <si>
     <t xml:space="preserve">Online_shop012</t>
@@ -9830,7 +9830,7 @@
   <dimension ref="A1:T1079"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1062" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1083" activeCellId="0" sqref="E1083"/>
+      <selection pane="topLeft" activeCell="B1067" activeCellId="0" sqref="B1067"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C56D8FF-F1D8-4282-B8C3-C95299CB7E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9E6478-0660-411A-A159-233CED1DE2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5535" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="译文-1" sheetId="1" r:id="rId1"/>
@@ -9117,12 +9117,6 @@
     <t>Online_shop002</t>
   </si>
   <si>
-    <t>Use in game to get 60% stamina</t>
-  </si>
-  <si>
-    <t>在游戏中使用可获得60%体力</t>
-  </si>
-  <si>
     <t>Online_shop003</t>
   </si>
   <si>
@@ -9239,6 +9233,14 @@
   </si>
   <si>
     <t>解锁</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use in game to get stamina</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在游戏中使用可获得体力</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -9771,8 +9773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1061" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1075" sqref="D1075"/>
+    <sheetView tabSelected="1" topLeftCell="A1057" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1071" sqref="D1071"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -17123,7 +17125,7 @@
         <v>354</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>887</v>
@@ -31446,7 +31448,7 @@
         <v>1042</v>
       </c>
       <c r="B1048" s="1" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="C1048" s="1" t="s">
         <v>2950</v>
@@ -31849,16 +31851,16 @@
         <v>3011</v>
       </c>
       <c r="C1068" s="1" t="s">
-        <v>3012</v>
+        <v>3050</v>
       </c>
       <c r="D1068" s="1" t="s">
-        <v>3013</v>
+        <v>3051</v>
       </c>
       <c r="E1068" s="1" t="s">
-        <v>3012</v>
+        <v>3050</v>
       </c>
       <c r="F1068" s="1" t="s">
-        <v>3012</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="1069" spans="1:6" x14ac:dyDescent="0.35">
@@ -31866,19 +31868,19 @@
         <v>1063</v>
       </c>
       <c r="B1069" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C1069" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D1069" s="1" t="s">
         <v>3014</v>
       </c>
-      <c r="C1069" s="1" t="s">
-        <v>3015</v>
-      </c>
-      <c r="D1069" s="1" t="s">
-        <v>3016</v>
-      </c>
       <c r="E1069" s="1" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="F1069" s="1" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="1070" spans="1:6" x14ac:dyDescent="0.35">
@@ -31886,19 +31888,19 @@
         <v>1064</v>
       </c>
       <c r="B1070" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C1070" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="D1070" s="1" t="s">
         <v>3017</v>
       </c>
-      <c r="C1070" s="1" t="s">
-        <v>3018</v>
-      </c>
-      <c r="D1070" s="1" t="s">
-        <v>3019</v>
-      </c>
       <c r="E1070" s="1" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="F1070" s="1" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1071" spans="1:6" x14ac:dyDescent="0.35">
@@ -31906,19 +31908,19 @@
         <v>1065</v>
       </c>
       <c r="B1071" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C1071" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D1071" s="1" t="s">
         <v>3020</v>
       </c>
-      <c r="C1071" s="1" t="s">
-        <v>3021</v>
-      </c>
-      <c r="D1071" s="1" t="s">
-        <v>3022</v>
-      </c>
       <c r="E1071" s="1" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="F1071" s="1" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1072" spans="1:6" x14ac:dyDescent="0.35">
@@ -31926,19 +31928,19 @@
         <v>1066</v>
       </c>
       <c r="B1072" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C1072" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="D1072" s="1" t="s">
         <v>3023</v>
       </c>
-      <c r="C1072" s="1" t="s">
-        <v>3024</v>
-      </c>
-      <c r="D1072" s="1" t="s">
-        <v>3025</v>
-      </c>
       <c r="E1072" s="1" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="F1072" s="1" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1073" spans="1:6" x14ac:dyDescent="0.35">
@@ -31946,19 +31948,19 @@
         <v>1067</v>
       </c>
       <c r="B1073" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C1073" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="D1073" s="1" t="s">
         <v>3026</v>
       </c>
-      <c r="C1073" s="1" t="s">
-        <v>3027</v>
-      </c>
-      <c r="D1073" s="1" t="s">
-        <v>3028</v>
-      </c>
       <c r="E1073" s="1" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="F1073" s="1" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.35">
@@ -31966,19 +31968,19 @@
         <v>1068</v>
       </c>
       <c r="B1074" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C1074" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D1074" s="1" t="s">
         <v>3029</v>
       </c>
-      <c r="C1074" s="1" t="s">
-        <v>3030</v>
-      </c>
-      <c r="D1074" s="1" t="s">
-        <v>3031</v>
-      </c>
       <c r="E1074" s="1" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="F1074" s="1" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1075" spans="1:6" x14ac:dyDescent="0.35">
@@ -31986,19 +31988,19 @@
         <v>1069</v>
       </c>
       <c r="B1075" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C1075" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D1075" s="1" t="s">
         <v>3032</v>
       </c>
-      <c r="C1075" s="1" t="s">
-        <v>3033</v>
-      </c>
-      <c r="D1075" s="1" t="s">
-        <v>3034</v>
-      </c>
       <c r="E1075" s="1" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="F1075" s="1" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="1076" spans="1:6" x14ac:dyDescent="0.35">
@@ -32006,19 +32008,19 @@
         <v>1070</v>
       </c>
       <c r="B1076" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C1076" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D1076" s="1" t="s">
         <v>3035</v>
       </c>
-      <c r="C1076" s="1" t="s">
-        <v>3036</v>
-      </c>
-      <c r="D1076" s="1" t="s">
-        <v>3037</v>
-      </c>
       <c r="E1076" s="1" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="F1076" s="1" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1077" spans="1:6" x14ac:dyDescent="0.35">
@@ -32026,19 +32028,19 @@
         <v>1071</v>
       </c>
       <c r="B1077" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C1077" s="38" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D1077" s="1" t="s">
         <v>3038</v>
       </c>
-      <c r="C1077" s="38" t="s">
-        <v>3039</v>
-      </c>
-      <c r="D1077" s="1" t="s">
-        <v>3040</v>
-      </c>
       <c r="E1077" s="38" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="F1077" s="38" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.35">
@@ -32046,19 +32048,19 @@
         <v>1072</v>
       </c>
       <c r="B1078" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C1078" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D1078" s="1" t="s">
         <v>3041</v>
       </c>
-      <c r="C1078" s="1" t="s">
-        <v>3042</v>
-      </c>
-      <c r="D1078" s="1" t="s">
-        <v>3043</v>
-      </c>
       <c r="E1078" s="1" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="F1078" s="1" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.35">
@@ -32066,19 +32068,19 @@
         <v>1073</v>
       </c>
       <c r="B1079" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C1079" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="D1079" s="1" t="s">
         <v>3044</v>
       </c>
-      <c r="C1079" s="1" t="s">
-        <v>3045</v>
-      </c>
-      <c r="D1079" s="1" t="s">
-        <v>3046</v>
-      </c>
       <c r="E1079" s="1" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="F1079" s="1" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="1080" spans="1:6" x14ac:dyDescent="0.35">
@@ -32086,19 +32088,19 @@
         <v>1074</v>
       </c>
       <c r="B1080" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C1080" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D1080" s="1" t="s">
         <v>3049</v>
       </c>
-      <c r="C1080" s="1" t="s">
-        <v>3050</v>
-      </c>
-      <c r="D1080" s="1" t="s">
-        <v>3051</v>
-      </c>
       <c r="E1080" s="1" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="F1080" s="1" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1175F72-8B3E-442F-A7D5-1E2900604128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B195E5C-03E6-4DEB-8294-1DD7D1BACD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5408" uniqueCount="3052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5413" uniqueCount="3055">
   <si>
     <t>int</t>
   </si>
@@ -9246,6 +9246,18 @@
   </si>
   <si>
     <t>Supreme Companion</t>
+  </si>
+  <si>
+    <t>Enter</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_21</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9775,10 +9787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1080"/>
+  <dimension ref="A1:T1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A551" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D578" sqref="D578"/>
+    <sheetView tabSelected="1" topLeftCell="A1059" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K1080" sqref="K1080"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -32105,6 +32117,26 @@
       </c>
       <c r="F1080" s="1" t="s">
         <v>3022</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1081" s="1">
+        <v>1075</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C1081" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D1081" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1081" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1081" s="1" t="s">
+        <v>3052</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B3EED2-501F-4C75-A47C-5805A26E855E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13374022-1E9C-4C37-9A59-511B167F063F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="译文-1" sheetId="1" r:id="rId1"/>
     <sheet name="WpsReserved_CellImgList" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -9805,8 +9805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D430" sqref="D430"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D332" sqref="D332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5423" uniqueCount="3062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="3073">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -9260,6 +9260,39 @@
   </si>
   <si>
     <t xml:space="preserve">需要开启多少枚扭蛋？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pet_NewBuy003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">融合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pet_NewBuy004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumulative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日累计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pet_NewBuy005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reset time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重置时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pet_NewBuy006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pet_NewBuy007</t>
   </si>
 </sst>
 </file>
@@ -9458,151 +9491,151 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9855,10 +9888,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1083"/>
+  <dimension ref="A1:T1088"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1058" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1086" activeCellId="0" sqref="E1086"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1070" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1092" activeCellId="0" sqref="D1092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32245,6 +32278,82 @@
       </c>
       <c r="F1083" s="1" t="s">
         <v>3060</v>
+      </c>
+    </row>
+    <row r="1084" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1084" s="1" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C1084" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="D1084" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="E1084" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="F1084" s="1" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="1085" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1085" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C1085" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D1085" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="E1085" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="F1085" s="1" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="1086" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1086" s="1" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C1086" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="D1086" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E1086" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="F1086" s="1" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="1087" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1087" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="1088" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1088" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>3072</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="3073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="3077">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -9292,7 +9292,19 @@
     <t xml:space="preserve">Pet_NewBuy006</t>
   </si>
   <si>
+    <t xml:space="preserve">{0} time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}次</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pet_NewBuy007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0} count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}只</t>
   </si>
 </sst>
 </file>
@@ -9891,7 +9903,7 @@
   <dimension ref="A1:T1088"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1070" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1092" activeCellId="0" sqref="D1092"/>
+      <selection pane="topLeft" activeCell="C1089" activeCellId="0" sqref="C1089"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32347,13 +32359,37 @@
       <c r="B1087" s="1" t="s">
         <v>3071</v>
       </c>
+      <c r="C1087" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D1087" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E1087" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="F1087" s="1" t="s">
+        <v>3072</v>
+      </c>
     </row>
     <row r="1088" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="1" t="n">
         <v>1082</v>
       </c>
       <c r="B1088" s="1" t="s">
-        <v>3072</v>
+        <v>3074</v>
+      </c>
+      <c r="C1088" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D1088" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E1088" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="F1088" s="1" t="s">
+        <v>3075</v>
       </c>
     </row>
   </sheetData>

--- a/pet-simulator/Excel/Language_多语言表.xlsx
+++ b/pet-simulator/Excel/Language_多语言表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\pet-simulator\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7445F12E-3EF8-42BA-9303-DC183A796FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1347F6-C6B0-4A35-BCC4-5EA6200BD230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5458" uniqueCount="3082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5463" uniqueCount="3085">
   <si>
     <t>int</t>
   </si>
@@ -9147,9 +9147,6 @@
     <t>确认（E）</t>
   </si>
   <si>
-    <t>Online_shop013</t>
-  </si>
-  <si>
     <t>Cancel(Esc)</t>
   </si>
   <si>
@@ -9357,6 +9354,22 @@
   </si>
   <si>
     <t>Dev_TextBlock_Intro_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online_shop013</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online_shop015</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -9873,10 +9886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1090"/>
+  <dimension ref="A1:T1091"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H281" sqref="H281"/>
+    <sheetView tabSelected="1" topLeftCell="A1065" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1093" sqref="E1093"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -15549,10 +15562,10 @@
         <v>275</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>636</v>
@@ -15688,16 +15701,16 @@
         <v>650</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="D283" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E283" s="8" t="s">
         <v>3059</v>
       </c>
-      <c r="E283" s="8" t="s">
-        <v>3060</v>
-      </c>
       <c r="F283" s="8" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.35">
@@ -15708,16 +15721,16 @@
         <v>651</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>652</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="285" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -15968,7 +15981,7 @@
         <v>691</v>
       </c>
       <c r="E296" s="9" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="F296" s="9" t="s">
         <v>692</v>
@@ -17210,16 +17223,16 @@
         <v>877</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>878</v>
       </c>
       <c r="E357" s="8" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="F357" s="8" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
@@ -17230,16 +17243,16 @@
         <v>879</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>880</v>
       </c>
       <c r="E358" s="8" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="F358" s="8" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
@@ -17430,7 +17443,7 @@
         <v>908</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="D368" s="10" t="s">
         <v>910</v>
@@ -17450,10 +17463,10 @@
         <v>911</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="D369" s="10" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="E369" s="3" t="s">
         <v>912</v>
@@ -17547,7 +17560,7 @@
         <v>370</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>926</v>
@@ -18075,19 +18088,19 @@
         <v>395</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="D399" s="16" t="s">
         <v>1002</v>
       </c>
       <c r="E399" s="8" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="F399" s="8" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="G399" s="15"/>
       <c r="H399" s="15"/>
@@ -21328,16 +21341,16 @@
         <v>1415</v>
       </c>
       <c r="C537" s="8" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="D537" s="20" t="s">
         <v>1416</v>
       </c>
       <c r="E537" s="8" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="F537" s="8" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="33" x14ac:dyDescent="0.35">
@@ -21568,16 +21581,16 @@
         <v>1450</v>
       </c>
       <c r="C549" s="8" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="D549" s="18" t="s">
         <v>1451</v>
       </c>
       <c r="E549" s="8" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="F549" s="8" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="550" spans="1:8" ht="33" x14ac:dyDescent="0.35">
@@ -26513,7 +26526,7 @@
         <v>790</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="C794" s="28" t="s">
         <v>2175</v>
@@ -26756,16 +26769,16 @@
         <v>2210</v>
       </c>
       <c r="C806" s="28" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="D806" s="1" t="s">
         <v>2211</v>
       </c>
       <c r="E806" s="28" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="F806" s="28" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="807" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
@@ -31470,7 +31483,7 @@
         <v>1038</v>
       </c>
       <c r="B1043" s="35" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="C1043" s="35" t="s">
         <v>2921</v>
@@ -31490,7 +31503,7 @@
         <v>1039</v>
       </c>
       <c r="B1044" s="35" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="C1044" s="36" t="s">
         <v>2923</v>
@@ -32033,16 +32046,16 @@
         <v>3004</v>
       </c>
       <c r="C1072" s="1" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="D1072" s="1" t="s">
         <v>3005</v>
       </c>
       <c r="E1072" s="1" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="F1072" s="1" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="1073" spans="1:6" x14ac:dyDescent="0.35">
@@ -32050,19 +32063,19 @@
         <v>1067</v>
       </c>
       <c r="B1073" s="1" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="C1073" s="1" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="D1073" s="1" t="s">
         <v>3006</v>
       </c>
       <c r="E1073" s="1" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="F1073" s="1" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.35">
@@ -32113,7 +32126,7 @@
         <v>3013</v>
       </c>
       <c r="C1076" s="1" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="D1076" s="1" t="s">
         <v>3015</v>
@@ -32170,19 +32183,19 @@
         <v>1073</v>
       </c>
       <c r="B1079" s="1" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C1079" s="1" t="s">
         <v>3022</v>
       </c>
-      <c r="C1079" s="1" t="s">
+      <c r="D1079" s="1" t="s">
         <v>3023</v>
       </c>
-      <c r="D1079" s="1" t="s">
-        <v>3024</v>
-      </c>
       <c r="E1079" s="1" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="F1079" s="1" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1080" spans="1:6" x14ac:dyDescent="0.35">
@@ -32190,19 +32203,19 @@
         <v>1074</v>
       </c>
       <c r="B1080" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C1080" s="1" t="s">
         <v>3025</v>
       </c>
-      <c r="C1080" s="1" t="s">
+      <c r="D1080" s="1" t="s">
         <v>3026</v>
       </c>
-      <c r="D1080" s="1" t="s">
-        <v>3027</v>
-      </c>
       <c r="E1080" s="1" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="F1080" s="1" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1081" spans="1:6" x14ac:dyDescent="0.35">
@@ -32210,19 +32223,19 @@
         <v>1075</v>
       </c>
       <c r="B1081" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C1081" s="1" t="s">
         <v>3028</v>
       </c>
-      <c r="C1081" s="1" t="s">
+      <c r="D1081" s="1" t="s">
         <v>3029</v>
       </c>
-      <c r="D1081" s="1" t="s">
-        <v>3030</v>
-      </c>
       <c r="E1081" s="1" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="F1081" s="1" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1082" spans="1:6" x14ac:dyDescent="0.35">
@@ -32230,19 +32243,19 @@
         <v>1076</v>
       </c>
       <c r="B1082" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C1082" s="1" t="s">
         <v>3031</v>
       </c>
-      <c r="C1082" s="1" t="s">
+      <c r="D1082" s="1" t="s">
         <v>3032</v>
       </c>
-      <c r="D1082" s="1" t="s">
-        <v>3033</v>
-      </c>
       <c r="E1082" s="1" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="F1082" s="1" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="1083" spans="1:6" x14ac:dyDescent="0.35">
@@ -32250,19 +32263,19 @@
         <v>1077</v>
       </c>
       <c r="B1083" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C1083" s="1" t="s">
         <v>3034</v>
       </c>
-      <c r="C1083" s="1" t="s">
-        <v>3035</v>
-      </c>
       <c r="D1083" s="1" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="E1083" s="1" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="F1083" s="1" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1084" spans="1:6" x14ac:dyDescent="0.35">
@@ -32270,19 +32283,19 @@
         <v>1078</v>
       </c>
       <c r="B1084" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1084" s="1" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="D1084" s="1" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="E1084" s="1" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="F1084" s="1" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="1085" spans="1:6" x14ac:dyDescent="0.35">
@@ -32290,19 +32303,19 @@
         <v>1079</v>
       </c>
       <c r="B1085" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C1085" s="1" t="s">
         <v>3037</v>
       </c>
-      <c r="C1085" s="1" t="s">
+      <c r="D1085" s="1" t="s">
         <v>3038</v>
       </c>
-      <c r="D1085" s="1" t="s">
-        <v>3039</v>
-      </c>
       <c r="E1085" s="1" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="F1085" s="1" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1086" spans="1:6" x14ac:dyDescent="0.35">
@@ -32310,19 +32323,19 @@
         <v>1080</v>
       </c>
       <c r="B1086" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C1086" s="1" t="s">
         <v>3040</v>
       </c>
-      <c r="C1086" s="1" t="s">
+      <c r="D1086" s="1" t="s">
         <v>3041</v>
       </c>
-      <c r="D1086" s="1" t="s">
-        <v>3042</v>
-      </c>
       <c r="E1086" s="1" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="F1086" s="1" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.35">
@@ -32330,19 +32343,19 @@
         <v>1081</v>
       </c>
       <c r="B1087" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C1087" s="1" t="s">
         <v>3043</v>
       </c>
-      <c r="C1087" s="1" t="s">
+      <c r="D1087" s="1" t="s">
         <v>3044</v>
       </c>
-      <c r="D1087" s="1" t="s">
-        <v>3045</v>
-      </c>
       <c r="E1087" s="1" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="F1087" s="1" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="1088" spans="1:6" x14ac:dyDescent="0.35">
@@ -32350,19 +32363,19 @@
         <v>1082</v>
       </c>
       <c r="B1088" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C1088" s="1" t="s">
         <v>3046</v>
       </c>
-      <c r="C1088" s="1" t="s">
+      <c r="D1088" s="1" t="s">
         <v>3047</v>
       </c>
-      <c r="D1088" s="1" t="s">
-        <v>3048</v>
-      </c>
       <c r="E1088" s="1" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="F1088" s="1" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="1089" spans="1:6" x14ac:dyDescent="0.35">
@@ -32370,19 +32383,19 @@
         <v>1083</v>
       </c>
       <c r="B1089" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C1089" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="D1089" s="1" t="s">
         <v>3055</v>
       </c>
-      <c r="C1089" s="1" t="s">
-        <v>3058</v>
-      </c>
-      <c r="D1089" s="1" t="s">
-        <v>3056</v>
-      </c>
       <c r="E1089" s="1" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="F1089" s="1" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="1090" spans="1:6" x14ac:dyDescent="0.35">
@@ -32390,19 +32403,39 @@
         <v>1084</v>
       </c>
       <c r="B1090" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="C1090" s="1" t="s">
         <v>3078</v>
       </c>
-      <c r="C1090" s="1" t="s">
-        <v>3079</v>
-      </c>
       <c r="D1090" s="1" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="E1090" s="1" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="F1090" s="1" t="s">
-        <v>3079</v>
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1091" s="1">
+        <v>1085</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C1091" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="D1091" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E1091" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F1091" s="1" t="s">
+        <v>3083</v>
       </c>
     </row>
   </sheetData>
